--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>606450.1799088849</v>
+        <v>502951.7218030996</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17543412.82000138</v>
+        <v>17543412.82000139</v>
       </c>
     </row>
     <row r="9">
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>46.12823741901145</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>49.85652829393091</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>222.6571589824341</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>156.0053783754247</v>
@@ -1426,13 +1426,13 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U11" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>222.6571589824341</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>131.0771149875036</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.87245664547835</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.9667171992885</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>69.81866415583926</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>82.57346213723667</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>130.370267106228</v>
       </c>
       <c r="S13" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>222.6571589824341</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>222.6571589824341</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>196.116425631728</v>
       </c>
       <c r="X14" t="n">
-        <v>196.1164256317283</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="Y14" t="n">
-        <v>222.6571589824345</v>
+        <v>222.6571589824342</v>
       </c>
     </row>
     <row r="15">
@@ -1691,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>222.6571589824345</v>
+        <v>143.1434804350964</v>
       </c>
       <c r="V15" t="n">
-        <v>222.6571589824345</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W15" t="n">
-        <v>75.0642010398554</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>75.7672889639373</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>66.74263121570121</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>196.1164256317283</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>202.133615794436</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>108.2046583420263</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1937,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>100.2135170486767</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>77.77021465336014</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>19.57811714556237</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>32.94211016344003</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="U19" t="n">
-        <v>222.6571589824345</v>
+        <v>176.5383084861656</v>
       </c>
       <c r="V19" t="n">
-        <v>222.6571589824345</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>192.3881347568084</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>49.85652829393156</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S20" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>22.87245664547832</v>
       </c>
       <c r="S21" t="n">
-        <v>128.6926616439587</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>173.2439689862499</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>84.57936354846369</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>166.947399967071</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>45.99632927639396</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6571589824345</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>219.22675774178</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>248.8950473907584</v>
+        <v>98.44253609919265</v>
       </c>
       <c r="X23" t="n">
         <v>248.8950473907584</v>
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0987399612021</v>
+        <v>29.71133468091516</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.87245664547832</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>190.4724449572684</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,7 +2462,7 @@
         <v>248.8950473907584</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>143.6389087542495</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.1701379727735</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.4866593014431</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,67 +2563,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="F26" t="n">
+      <c r="W26" t="n">
+        <v>219.22675774178</v>
+      </c>
+      <c r="X26" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>219.22675774178</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>46.53917216822465</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.87245664547832</v>
       </c>
       <c r="S27" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>109.7947959984295</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8594888440006</v>
+        <v>114.1984134507462</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.22675774178</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="W28" t="n">
-        <v>44.16852278613008</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,73 +2794,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="D29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>156.0053783754247</v>
-      </c>
-      <c r="T29" t="n">
-        <v>63.22137936635527</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>219.2267577417801</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,16 +2879,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>51.41540664113955</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0987399612021</v>
+        <v>52.58379132639357</v>
       </c>
       <c r="H30" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.87245664547832</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>19.57811714556237</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.4866593014431</v>
+        <v>199.6486405962176</v>
       </c>
       <c r="U31" t="n">
         <v>248.8950473907584</v>
       </c>
       <c r="V31" t="n">
-        <v>157.3300707449281</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.586788922053876</v>
       </c>
       <c r="G32" t="n">
         <v>248.8950473907584</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S32" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.9116779448064</v>
       </c>
       <c r="U32" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>99.20474881230732</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>46.53917216822465</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.87245664547832</v>
       </c>
       <c r="S33" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V33" t="n">
-        <v>136.3268010059241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>188.945147716168</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.4866593014431</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>21.0213109247974</v>
+        <v>67.17999865802625</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>192.3881347568085</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="F35" t="n">
-        <v>222.6571589824346</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="G35" t="n">
-        <v>222.6571589824346</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="H35" t="n">
-        <v>196.1164256317284</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>222.6571589824346</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.445240541811451</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>213.0005994106853</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="W36" t="n">
-        <v>222.6571589824346</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>13.91660351842664</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.08986783436765</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,20 +3502,20 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>196.1164256317283</v>
+      </c>
+      <c r="F38" t="n">
         <v>222.6571589824345</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>196.1164256317283</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="X38" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>222.6571589824345</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>75.06420103985529</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>222.6571589824345</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="W39" t="n">
         <v>222.6571589824345</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>196.1164256317283</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3.674433413147028</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>16.28444544979087</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>71.60391311422102</v>
       </c>
       <c r="F41" t="n">
         <v>222.6571589824345</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="Y41" t="n">
-        <v>196.1164256317283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>83.12789132342544</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>46.53917216822465</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.87245664547832</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U42" t="n">
         <v>222.6571589824345</v>
       </c>
       <c r="V42" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>7.317903633380751</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>19.57811714556237</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="U43" t="n">
-        <v>196.1164256317283</v>
+        <v>69.24339093132902</v>
       </c>
       <c r="V43" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="G44" t="n">
-        <v>222.6571589824344</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>3.728290874919793</v>
       </c>
       <c r="S44" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="V44" t="n">
         <v>222.6571589824344</v>
       </c>
       <c r="W44" t="n">
-        <v>46.12823741901176</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>192.3881347568084</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,13 +4058,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>113.3905389600664</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>169.8074139266899</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>222.6571589824344</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.947399967071</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T46" t="n">
-        <v>222.6571589824344</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>12.18708686611652</v>
+        <v>66.90385909389106</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>289.3129731240954</v>
+        <v>293.0789235028018</v>
       </c>
       <c r="C11" t="n">
-        <v>289.3129731240954</v>
+        <v>293.0789235028018</v>
       </c>
       <c r="D11" t="n">
-        <v>242.7187939129728</v>
+        <v>293.0789235028018</v>
       </c>
       <c r="E11" t="n">
-        <v>17.81257271859474</v>
+        <v>293.0789235028018</v>
       </c>
       <c r="F11" t="n">
-        <v>17.81257271859474</v>
+        <v>242.7187939129726</v>
       </c>
       <c r="G11" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="H11" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="I11" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J11" t="n">
-        <v>34.05974234075606</v>
+        <v>34.05974234075597</v>
       </c>
       <c r="K11" t="n">
         <v>109.1485562061087</v>
@@ -5050,43 +5050,43 @@
         <v>239.204631471134</v>
       </c>
       <c r="M11" t="n">
-        <v>415.5865117704858</v>
+        <v>415.5865117704857</v>
       </c>
       <c r="N11" t="n">
-        <v>599.4362436734923</v>
+        <v>599.4362436734922</v>
       </c>
       <c r="O11" t="n">
-        <v>759.7050708974404</v>
+        <v>759.7050708974405</v>
       </c>
       <c r="P11" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237593</v>
       </c>
       <c r="Q11" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297364</v>
       </c>
       <c r="R11" t="n">
-        <v>886.86268555103</v>
+        <v>890.6286359297364</v>
       </c>
       <c r="S11" t="n">
-        <v>729.2814952728233</v>
+        <v>733.0474456515296</v>
       </c>
       <c r="T11" t="n">
-        <v>514.2191943184735</v>
+        <v>517.9851446971797</v>
       </c>
       <c r="U11" t="n">
-        <v>289.3129731240954</v>
+        <v>517.9851446971797</v>
       </c>
       <c r="V11" t="n">
-        <v>289.3129731240954</v>
+        <v>517.9851446971797</v>
       </c>
       <c r="W11" t="n">
-        <v>289.3129731240954</v>
+        <v>293.0789235028018</v>
       </c>
       <c r="X11" t="n">
-        <v>289.3129731240954</v>
+        <v>293.0789235028018</v>
       </c>
       <c r="Y11" t="n">
-        <v>289.3129731240954</v>
+        <v>293.0789235028018</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>890.6286359297369</v>
+        <v>341.200011660973</v>
       </c>
       <c r="C12" t="n">
-        <v>758.2275096797332</v>
+        <v>166.746982379846</v>
       </c>
       <c r="D12" t="n">
-        <v>609.2931000184819</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="E12" t="n">
-        <v>450.0556450130264</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="F12" t="n">
-        <v>303.5210870399113</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="G12" t="n">
-        <v>166.0476123316264</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="H12" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="I12" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J12" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="K12" t="n">
-        <v>124.7714519989688</v>
+        <v>80.34372630892085</v>
       </c>
       <c r="L12" t="n">
-        <v>255.1748459799669</v>
+        <v>210.747120289919</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7063241973256</v>
+        <v>426.7063241973252</v>
       </c>
       <c r="N12" t="n">
-        <v>617.1863751510018</v>
+        <v>617.1863751510014</v>
       </c>
       <c r="O12" t="n">
-        <v>769.2186132763801</v>
+        <v>769.2186132763796</v>
       </c>
       <c r="P12" t="n">
-        <v>871.904821527594</v>
+        <v>871.9048215275935</v>
       </c>
       <c r="Q12" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297364</v>
       </c>
       <c r="R12" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686471</v>
       </c>
       <c r="S12" t="n">
-        <v>890.6286359297369</v>
+        <v>717.4625377712315</v>
       </c>
       <c r="T12" t="n">
-        <v>890.6286359297369</v>
+        <v>717.4625377712315</v>
       </c>
       <c r="U12" t="n">
-        <v>890.6286359297369</v>
+        <v>509.4153486810411</v>
       </c>
       <c r="V12" t="n">
-        <v>890.6286359297369</v>
+        <v>509.4153486810411</v>
       </c>
       <c r="W12" t="n">
-        <v>890.6286359297369</v>
+        <v>509.4153486810411</v>
       </c>
       <c r="X12" t="n">
-        <v>890.6286359297369</v>
+        <v>509.4153486810411</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.6286359297369</v>
+        <v>509.4153486810411</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.220110230955</v>
+        <v>88.33647590631116</v>
       </c>
       <c r="C13" t="n">
-        <v>101.220110230955</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="D13" t="n">
-        <v>101.220110230955</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="E13" t="n">
-        <v>101.220110230955</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="F13" t="n">
-        <v>101.220110230955</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="G13" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="H13" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="I13" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J13" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="K13" t="n">
         <v>115.7982774083839</v>
@@ -5208,43 +5208,43 @@
         <v>296.7126787168869</v>
       </c>
       <c r="M13" t="n">
-        <v>497.8506719203921</v>
+        <v>394.9981493597612</v>
       </c>
       <c r="N13" t="n">
-        <v>699.6406696328909</v>
+        <v>596.78814707226</v>
       </c>
       <c r="O13" t="n">
-        <v>870.0100976634538</v>
+        <v>767.1575751028229</v>
       </c>
       <c r="P13" t="n">
-        <v>890.6286359297369</v>
+        <v>889.4173707822649</v>
       </c>
       <c r="Q13" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297364</v>
       </c>
       <c r="R13" t="n">
-        <v>758.9414974385975</v>
+        <v>758.941497438597</v>
       </c>
       <c r="S13" t="n">
-        <v>551.0325526197111</v>
+        <v>758.941497438597</v>
       </c>
       <c r="T13" t="n">
-        <v>326.126331425333</v>
+        <v>758.941497438597</v>
       </c>
       <c r="U13" t="n">
-        <v>101.220110230955</v>
+        <v>758.941497438597</v>
       </c>
       <c r="V13" t="n">
-        <v>101.220110230955</v>
+        <v>534.0352762442192</v>
       </c>
       <c r="W13" t="n">
-        <v>101.220110230955</v>
+        <v>534.0352762442192</v>
       </c>
       <c r="X13" t="n">
-        <v>101.220110230955</v>
+        <v>309.1290550498413</v>
       </c>
       <c r="Y13" t="n">
-        <v>101.220110230955</v>
+        <v>88.33647590631116</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>242.7187939129731</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="C14" t="n">
-        <v>17.81257271859476</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="D14" t="n">
-        <v>17.81257271859476</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="E14" t="n">
-        <v>17.81257271859476</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="F14" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G14" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H14" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I14" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J14" t="n">
-        <v>34.0597423407562</v>
+        <v>34.05974234075575</v>
       </c>
       <c r="K14" t="n">
-        <v>109.148556206109</v>
+        <v>109.1485562061085</v>
       </c>
       <c r="L14" t="n">
-        <v>239.2046314711345</v>
+        <v>239.2046314711338</v>
       </c>
       <c r="M14" t="n">
-        <v>415.5865117704866</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N14" t="n">
-        <v>599.4362436734934</v>
+        <v>599.4362436734925</v>
       </c>
       <c r="O14" t="n">
-        <v>759.7050708974416</v>
+        <v>759.7050708974405</v>
       </c>
       <c r="P14" t="n">
-        <v>861.9898061237608</v>
+        <v>861.9898061237598</v>
       </c>
       <c r="Q14" t="n">
-        <v>890.628635929738</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R14" t="n">
-        <v>890.628635929738</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S14" t="n">
-        <v>890.628635929738</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T14" t="n">
-        <v>890.628635929738</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="U14" t="n">
-        <v>890.628635929738</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="V14" t="n">
-        <v>890.628635929738</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="W14" t="n">
-        <v>890.628635929738</v>
+        <v>692.5312363017288</v>
       </c>
       <c r="X14" t="n">
-        <v>692.5312363017297</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="Y14" t="n">
-        <v>467.6250151073514</v>
+        <v>242.7187939129728</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.81257271859476</v>
+        <v>313.281540352961</v>
       </c>
       <c r="C15" t="n">
-        <v>17.81257271859476</v>
+        <v>313.281540352961</v>
       </c>
       <c r="D15" t="n">
-        <v>17.81257271859476</v>
+        <v>164.3471306917098</v>
       </c>
       <c r="E15" t="n">
-        <v>17.81257271859476</v>
+        <v>164.3471306917098</v>
       </c>
       <c r="F15" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G15" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H15" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I15" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J15" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K15" t="n">
-        <v>80.34372630892096</v>
+        <v>80.34372630892085</v>
       </c>
       <c r="L15" t="n">
-        <v>255.1748459799678</v>
+        <v>210.747120289919</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7063241973265</v>
+        <v>382.2785985072775</v>
       </c>
       <c r="N15" t="n">
-        <v>617.1863751510027</v>
+        <v>572.7586494609537</v>
       </c>
       <c r="O15" t="n">
-        <v>769.2186132763811</v>
+        <v>724.790887586332</v>
       </c>
       <c r="P15" t="n">
-        <v>871.9048215275951</v>
+        <v>827.4770958375459</v>
       </c>
       <c r="Q15" t="n">
-        <v>890.628635929738</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R15" t="n">
-        <v>890.628635929738</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S15" t="n">
-        <v>740.5660293323224</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T15" t="n">
-        <v>543.4474404001346</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="U15" t="n">
-        <v>318.5412192057563</v>
+        <v>746.0392617528719</v>
       </c>
       <c r="V15" t="n">
-        <v>93.634998011378</v>
+        <v>521.1330405584938</v>
       </c>
       <c r="W15" t="n">
-        <v>17.81257271859476</v>
+        <v>521.1330405584938</v>
       </c>
       <c r="X15" t="n">
-        <v>17.81257271859476</v>
+        <v>313.281540352961</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.81257271859476</v>
+        <v>313.281540352961</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2813707615899</v>
+        <v>577.2930326083577</v>
       </c>
       <c r="C16" t="n">
-        <v>94.34518783368296</v>
+        <v>408.3568496804509</v>
       </c>
       <c r="D16" t="n">
-        <v>94.34518783368296</v>
+        <v>408.3568496804509</v>
       </c>
       <c r="E16" t="n">
-        <v>94.34518783368296</v>
+        <v>408.3568496804509</v>
       </c>
       <c r="F16" t="n">
-        <v>17.81257271859476</v>
+        <v>408.3568496804509</v>
       </c>
       <c r="G16" t="n">
-        <v>17.81257271859476</v>
+        <v>239.723112339975</v>
       </c>
       <c r="H16" t="n">
-        <v>17.81257271859476</v>
+        <v>85.22937192637374</v>
       </c>
       <c r="I16" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J16" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K16" t="n">
-        <v>115.798277408384</v>
+        <v>115.7982774083839</v>
       </c>
       <c r="L16" t="n">
-        <v>296.712678716887</v>
+        <v>296.7126787168869</v>
       </c>
       <c r="M16" t="n">
-        <v>394.9981493597626</v>
+        <v>394.9981493597617</v>
       </c>
       <c r="N16" t="n">
-        <v>596.7881470722614</v>
+        <v>596.7881470722605</v>
       </c>
       <c r="O16" t="n">
-        <v>767.1575751028244</v>
+        <v>767.1575751028233</v>
       </c>
       <c r="P16" t="n">
-        <v>889.4173707822665</v>
+        <v>889.4173707822654</v>
       </c>
       <c r="Q16" t="n">
-        <v>890.628635929738</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R16" t="n">
-        <v>890.628635929738</v>
+        <v>758.9414974385975</v>
       </c>
       <c r="S16" t="n">
-        <v>890.628635929738</v>
+        <v>758.9414974385975</v>
       </c>
       <c r="T16" t="n">
-        <v>890.628635929738</v>
+        <v>758.9414974385975</v>
       </c>
       <c r="U16" t="n">
-        <v>890.628635929738</v>
+        <v>758.9414974385975</v>
       </c>
       <c r="V16" t="n">
-        <v>890.628635929738</v>
+        <v>758.9414974385975</v>
       </c>
       <c r="W16" t="n">
-        <v>890.628635929738</v>
+        <v>758.9414974385975</v>
       </c>
       <c r="X16" t="n">
-        <v>665.7224147353597</v>
+        <v>758.9414974385975</v>
       </c>
       <c r="Y16" t="n">
-        <v>444.9298355918296</v>
+        <v>758.9414974385975</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>890.6286359297378</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="C17" t="n">
-        <v>692.5312363017295</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="D17" t="n">
-        <v>467.6250151073513</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="E17" t="n">
-        <v>242.718793912973</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="F17" t="n">
-        <v>17.81257271859476</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="G17" t="n">
-        <v>17.81257271859476</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="H17" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I17" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J17" t="n">
-        <v>34.05974234075597</v>
+        <v>34.0597423407561</v>
       </c>
       <c r="K17" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061089</v>
       </c>
       <c r="L17" t="n">
         <v>239.2046314711343</v>
       </c>
       <c r="M17" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704861</v>
       </c>
       <c r="N17" t="n">
         <v>599.436243673493</v>
@@ -5533,34 +5533,34 @@
         <v>759.7050708974411</v>
       </c>
       <c r="P17" t="n">
-        <v>861.9898061237606</v>
+        <v>861.9898061237604</v>
       </c>
       <c r="Q17" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R17" t="n">
-        <v>890.6286359297378</v>
+        <v>886.86268555103</v>
       </c>
       <c r="S17" t="n">
-        <v>890.6286359297378</v>
+        <v>886.86268555103</v>
       </c>
       <c r="T17" t="n">
-        <v>890.6286359297378</v>
+        <v>671.8003845966801</v>
       </c>
       <c r="U17" t="n">
-        <v>890.6286359297378</v>
+        <v>671.8003845966801</v>
       </c>
       <c r="V17" t="n">
-        <v>890.6286359297378</v>
+        <v>671.8003845966801</v>
       </c>
       <c r="W17" t="n">
-        <v>890.6286359297378</v>
+        <v>671.8003845966801</v>
       </c>
       <c r="X17" t="n">
-        <v>890.6286359297378</v>
+        <v>671.8003845966801</v>
       </c>
       <c r="Y17" t="n">
-        <v>890.6286359297378</v>
+        <v>467.6250151073508</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>867.5251443686486</v>
+        <v>620.7540349714482</v>
       </c>
       <c r="C18" t="n">
-        <v>758.2275096797332</v>
+        <v>620.7540349714482</v>
       </c>
       <c r="D18" t="n">
-        <v>609.2931000184819</v>
+        <v>471.819625310197</v>
       </c>
       <c r="E18" t="n">
-        <v>450.0556450130264</v>
+        <v>312.5821703047415</v>
       </c>
       <c r="F18" t="n">
-        <v>303.5210870399113</v>
+        <v>166.0476123316264</v>
       </c>
       <c r="G18" t="n">
         <v>166.0476123316264</v>
       </c>
       <c r="H18" t="n">
-        <v>64.8218375349833</v>
+        <v>64.82183753498327</v>
       </c>
       <c r="I18" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J18" t="n">
-        <v>62.24029840864313</v>
+        <v>62.24029840864222</v>
       </c>
       <c r="K18" t="n">
-        <v>124.7714519989693</v>
+        <v>124.7714519989684</v>
       </c>
       <c r="L18" t="n">
-        <v>255.1748459799676</v>
+        <v>255.1748459799666</v>
       </c>
       <c r="M18" t="n">
-        <v>426.7063241973262</v>
+        <v>426.7063241973253</v>
       </c>
       <c r="N18" t="n">
-        <v>617.1863751510025</v>
+        <v>617.1863751510016</v>
       </c>
       <c r="O18" t="n">
-        <v>769.2186132763809</v>
+        <v>769.21861327638</v>
       </c>
       <c r="P18" t="n">
-        <v>871.9048215275949</v>
+        <v>871.904821527594</v>
       </c>
       <c r="Q18" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R18" t="n">
-        <v>867.5251443686486</v>
+        <v>867.5251443686477</v>
       </c>
       <c r="S18" t="n">
-        <v>867.5251443686486</v>
+        <v>867.5251443686477</v>
       </c>
       <c r="T18" t="n">
-        <v>867.5251443686486</v>
+        <v>867.5251443686477</v>
       </c>
       <c r="U18" t="n">
-        <v>867.5251443686486</v>
+        <v>788.9693719915163</v>
       </c>
       <c r="V18" t="n">
-        <v>867.5251443686486</v>
+        <v>788.9693719915163</v>
       </c>
       <c r="W18" t="n">
-        <v>867.5251443686486</v>
+        <v>788.9693719915163</v>
       </c>
       <c r="X18" t="n">
-        <v>867.5251443686486</v>
+        <v>788.9693719915163</v>
       </c>
       <c r="Y18" t="n">
-        <v>867.5251443686486</v>
+        <v>788.9693719915163</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>186.7487556465017</v>
+        <v>37.58844862320319</v>
       </c>
       <c r="C19" t="n">
-        <v>17.81257271859476</v>
+        <v>37.58844862320319</v>
       </c>
       <c r="D19" t="n">
-        <v>17.81257271859476</v>
+        <v>37.58844862320319</v>
       </c>
       <c r="E19" t="n">
-        <v>17.81257271859476</v>
+        <v>37.58844862320319</v>
       </c>
       <c r="F19" t="n">
-        <v>17.81257271859476</v>
+        <v>37.58844862320319</v>
       </c>
       <c r="G19" t="n">
-        <v>17.81257271859476</v>
+        <v>37.58844862320319</v>
       </c>
       <c r="H19" t="n">
-        <v>17.81257271859476</v>
+        <v>37.58844862320319</v>
       </c>
       <c r="I19" t="n">
-        <v>17.81257271859476</v>
+        <v>37.58844862320319</v>
       </c>
       <c r="J19" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K19" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="L19" t="n">
-        <v>198.7269740270978</v>
+        <v>195.0714213037278</v>
       </c>
       <c r="M19" t="n">
-        <v>394.9981493597624</v>
+        <v>396.209414507233</v>
       </c>
       <c r="N19" t="n">
-        <v>596.7881470722612</v>
+        <v>597.9994122197318</v>
       </c>
       <c r="O19" t="n">
-        <v>767.1575751028241</v>
+        <v>768.3688402502947</v>
       </c>
       <c r="P19" t="n">
-        <v>889.4173707822663</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="Q19" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R19" t="n">
-        <v>857.3537771787883</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S19" t="n">
-        <v>857.3537771787883</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T19" t="n">
-        <v>857.3537771787883</v>
+        <v>665.7224147353588</v>
       </c>
       <c r="U19" t="n">
-        <v>632.44755598441</v>
+        <v>487.4008910119592</v>
       </c>
       <c r="V19" t="n">
-        <v>407.5413347900318</v>
+        <v>262.4946698175812</v>
       </c>
       <c r="W19" t="n">
-        <v>407.5413347900318</v>
+        <v>37.58844862320319</v>
       </c>
       <c r="X19" t="n">
-        <v>407.5413347900318</v>
+        <v>37.58844862320319</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.7487556465017</v>
+        <v>37.58844862320319</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.17270230842462</v>
+        <v>661.9564643566525</v>
       </c>
       <c r="C20" t="n">
-        <v>68.17270230842462</v>
+        <v>437.0502431622743</v>
       </c>
       <c r="D20" t="n">
-        <v>68.17270230842462</v>
+        <v>242.718793912973</v>
       </c>
       <c r="E20" t="n">
-        <v>68.17270230842462</v>
+        <v>242.718793912973</v>
       </c>
       <c r="F20" t="n">
-        <v>68.17270230842462</v>
+        <v>242.718793912973</v>
       </c>
       <c r="G20" t="n">
-        <v>68.17270230842462</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="H20" t="n">
-        <v>68.17270230842462</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I20" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J20" t="n">
-        <v>34.05974234075597</v>
+        <v>34.05974234075613</v>
       </c>
       <c r="K20" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061089</v>
       </c>
       <c r="L20" t="n">
-        <v>239.2046314711343</v>
+        <v>239.2046314711342</v>
       </c>
       <c r="M20" t="n">
         <v>415.586511770486</v>
       </c>
       <c r="N20" t="n">
-        <v>599.436243673493</v>
+        <v>599.4362436734925</v>
       </c>
       <c r="O20" t="n">
-        <v>759.7050708974411</v>
+        <v>759.7050708974407</v>
       </c>
       <c r="P20" t="n">
-        <v>861.9898061237606</v>
+        <v>861.9898061237603</v>
       </c>
       <c r="Q20" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R20" t="n">
-        <v>890.6286359297378</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="S20" t="n">
-        <v>733.047445651531</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="T20" t="n">
-        <v>517.9851446971811</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="U20" t="n">
-        <v>293.0789235028029</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="V20" t="n">
-        <v>293.0789235028029</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="W20" t="n">
-        <v>68.17270230842462</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="X20" t="n">
-        <v>68.17270230842462</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.17270230842462</v>
+        <v>886.8626855510307</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>164.3471306917098</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="C21" t="n">
-        <v>164.3471306917098</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="D21" t="n">
-        <v>164.3471306917098</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="E21" t="n">
-        <v>164.3471306917098</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="F21" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="G21" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="H21" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I21" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J21" t="n">
-        <v>17.81257271859476</v>
+        <v>62.2402984086429</v>
       </c>
       <c r="K21" t="n">
-        <v>80.34372630892096</v>
+        <v>124.7714519989691</v>
       </c>
       <c r="L21" t="n">
-        <v>210.7471202899192</v>
+        <v>255.1748459799673</v>
       </c>
       <c r="M21" t="n">
-        <v>382.2785985072779</v>
+        <v>426.706324197326</v>
       </c>
       <c r="N21" t="n">
-        <v>572.7586494609542</v>
+        <v>617.1863751510023</v>
       </c>
       <c r="O21" t="n">
-        <v>724.7908875863325</v>
+        <v>769.2186132763807</v>
       </c>
       <c r="P21" t="n">
-        <v>827.4770958375465</v>
+        <v>871.9048215275947</v>
       </c>
       <c r="Q21" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R21" t="n">
-        <v>867.5251443686486</v>
+        <v>867.5251443686484</v>
       </c>
       <c r="S21" t="n">
-        <v>737.5325568494984</v>
+        <v>867.5251443686484</v>
       </c>
       <c r="T21" t="n">
-        <v>540.4139679173106</v>
+        <v>867.5251443686484</v>
       </c>
       <c r="U21" t="n">
-        <v>540.4139679173106</v>
+        <v>642.6189231742702</v>
       </c>
       <c r="V21" t="n">
-        <v>540.4139679173106</v>
+        <v>417.712701979892</v>
       </c>
       <c r="W21" t="n">
-        <v>540.4139679173106</v>
+        <v>192.8064807855138</v>
       </c>
       <c r="X21" t="n">
-        <v>332.5624677117778</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="Y21" t="n">
-        <v>332.5624677117778</v>
+        <v>17.81257271859475</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.8161935409813</v>
+        <v>232.9072487220948</v>
       </c>
       <c r="C22" t="n">
-        <v>271.8800106130743</v>
+        <v>232.9072487220948</v>
       </c>
       <c r="D22" t="n">
-        <v>186.4463100590706</v>
+        <v>232.9072487220948</v>
       </c>
       <c r="E22" t="n">
-        <v>186.4463100590706</v>
+        <v>232.9072487220948</v>
       </c>
       <c r="F22" t="n">
-        <v>186.4463100590706</v>
+        <v>232.9072487220948</v>
       </c>
       <c r="G22" t="n">
-        <v>17.81257271859476</v>
+        <v>64.27351138161896</v>
       </c>
       <c r="H22" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I22" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J22" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="K22" t="n">
-        <v>115.798277408384</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="L22" t="n">
-        <v>195.0714213037287</v>
+        <v>195.0714213037285</v>
       </c>
       <c r="M22" t="n">
-        <v>396.2094145072339</v>
+        <v>396.2094145072336</v>
       </c>
       <c r="N22" t="n">
-        <v>597.9994122197327</v>
+        <v>597.9994122197324</v>
       </c>
       <c r="O22" t="n">
-        <v>768.3688402502956</v>
+        <v>768.3688402502954</v>
       </c>
       <c r="P22" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="Q22" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R22" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="S22" t="n">
-        <v>890.6286359297378</v>
+        <v>682.7196911108512</v>
       </c>
       <c r="T22" t="n">
-        <v>665.7224147353595</v>
+        <v>457.813469916473</v>
       </c>
       <c r="U22" t="n">
-        <v>665.7224147353595</v>
+        <v>232.9072487220948</v>
       </c>
       <c r="V22" t="n">
-        <v>665.7224147353595</v>
+        <v>232.9072487220948</v>
       </c>
       <c r="W22" t="n">
-        <v>665.7224147353595</v>
+        <v>232.9072487220948</v>
       </c>
       <c r="X22" t="n">
-        <v>440.8161935409813</v>
+        <v>232.9072487220948</v>
       </c>
       <c r="Y22" t="n">
-        <v>440.8161935409813</v>
+        <v>232.9072487220948</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.91160379126067</v>
+        <v>644.7341456337901</v>
       </c>
       <c r="C23" t="n">
-        <v>19.91160379126067</v>
+        <v>393.3250068552463</v>
       </c>
       <c r="D23" t="n">
-        <v>19.91160379126067</v>
+        <v>393.3250068552463</v>
       </c>
       <c r="E23" t="n">
-        <v>19.91160379126067</v>
+        <v>393.3250068552463</v>
       </c>
       <c r="F23" t="n">
-        <v>19.91160379126067</v>
+        <v>393.3250068552463</v>
       </c>
       <c r="G23" t="n">
-        <v>19.91160379126067</v>
+        <v>141.9158680767025</v>
       </c>
       <c r="H23" t="n">
-        <v>19.91160379126067</v>
+        <v>141.9158680767025</v>
       </c>
       <c r="I23" t="n">
         <v>19.91160379126067</v>
@@ -5995,19 +5995,19 @@
         <v>111.2475872787748</v>
       </c>
       <c r="L23" t="n">
-        <v>241.3036625438003</v>
+        <v>344.1561851044302</v>
       </c>
       <c r="M23" t="n">
-        <v>417.6855428431521</v>
+        <v>520.5380654037821</v>
       </c>
       <c r="N23" t="n">
-        <v>601.535274746159</v>
+        <v>704.3877973067889</v>
       </c>
       <c r="O23" t="n">
-        <v>761.8041019701071</v>
+        <v>864.6566245307371</v>
       </c>
       <c r="P23" t="n">
-        <v>864.0888371964264</v>
+        <v>966.9413597570564</v>
       </c>
       <c r="Q23" t="n">
         <v>995.5801895630336</v>
@@ -6022,19 +6022,19 @@
         <v>995.5801895630336</v>
       </c>
       <c r="U23" t="n">
-        <v>744.1710507844898</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="V23" t="n">
-        <v>522.7298813483484</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="W23" t="n">
-        <v>271.3207425698045</v>
+        <v>896.143284412334</v>
       </c>
       <c r="X23" t="n">
-        <v>19.91160379126067</v>
+        <v>644.7341456337901</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.91160379126067</v>
+        <v>644.7341456337901</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>316.6225335050011</v>
+        <v>49.92305296390225</v>
       </c>
       <c r="C24" t="n">
-        <v>316.6225335050011</v>
+        <v>49.92305296390225</v>
       </c>
       <c r="D24" t="n">
-        <v>316.6225335050011</v>
+        <v>49.92305296390225</v>
       </c>
       <c r="E24" t="n">
-        <v>157.3850784995456</v>
+        <v>49.92305296390225</v>
       </c>
       <c r="F24" t="n">
-        <v>157.3850784995456</v>
+        <v>49.92305296390225</v>
       </c>
       <c r="G24" t="n">
         <v>19.91160379126067</v>
@@ -6068,22 +6068,22 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J24" t="n">
-        <v>19.91160379126067</v>
+        <v>135.6005847439774</v>
       </c>
       <c r="K24" t="n">
-        <v>82.44275738158687</v>
+        <v>198.1317383343036</v>
       </c>
       <c r="L24" t="n">
-        <v>212.8461513625851</v>
+        <v>328.5351323153018</v>
       </c>
       <c r="M24" t="n">
-        <v>384.3776295799438</v>
+        <v>500.0666105326604</v>
       </c>
       <c r="N24" t="n">
-        <v>630.7837264967947</v>
+        <v>690.5466614863367</v>
       </c>
       <c r="O24" t="n">
-        <v>782.8159646221729</v>
+        <v>874.1701669096767</v>
       </c>
       <c r="P24" t="n">
         <v>976.8563751608907</v>
@@ -6092,28 +6092,28 @@
         <v>995.5801895630336</v>
       </c>
       <c r="R24" t="n">
-        <v>995.5801895630336</v>
+        <v>972.4766980019444</v>
       </c>
       <c r="S24" t="n">
-        <v>995.5801895630336</v>
+        <v>972.4766980019444</v>
       </c>
       <c r="T24" t="n">
-        <v>995.5801895630336</v>
+        <v>972.4766980019444</v>
       </c>
       <c r="U24" t="n">
-        <v>803.1837805152877</v>
+        <v>744.3358001797217</v>
       </c>
       <c r="V24" t="n">
-        <v>568.0316722835449</v>
+        <v>509.183691947979</v>
       </c>
       <c r="W24" t="n">
-        <v>316.6225335050011</v>
+        <v>257.7745531694351</v>
       </c>
       <c r="X24" t="n">
-        <v>316.6225335050011</v>
+        <v>49.92305296390225</v>
       </c>
       <c r="Y24" t="n">
-        <v>316.6225335050011</v>
+        <v>49.92305296390225</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170.0282432035964</v>
+        <v>333.9375935416418</v>
       </c>
       <c r="C25" t="n">
-        <v>170.0282432035964</v>
+        <v>165.0014106137349</v>
       </c>
       <c r="D25" t="n">
-        <v>19.91160379126067</v>
+        <v>165.0014106137349</v>
       </c>
       <c r="E25" t="n">
         <v>19.91160379126067</v>
@@ -6174,25 +6174,25 @@
         <v>995.5801895630336</v>
       </c>
       <c r="S25" t="n">
-        <v>800.4588380753836</v>
+        <v>787.6712447441472</v>
       </c>
       <c r="T25" t="n">
-        <v>800.4588380753836</v>
+        <v>561.9271444396592</v>
       </c>
       <c r="U25" t="n">
-        <v>800.4588380753836</v>
+        <v>561.9271444396592</v>
       </c>
       <c r="V25" t="n">
-        <v>800.4588380753836</v>
+        <v>561.9271444396592</v>
       </c>
       <c r="W25" t="n">
-        <v>800.4588380753836</v>
+        <v>561.9271444396592</v>
       </c>
       <c r="X25" t="n">
-        <v>572.4692871773663</v>
+        <v>333.9375935416418</v>
       </c>
       <c r="Y25" t="n">
-        <v>351.6767080338361</v>
+        <v>333.9375935416418</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>522.7298813483484</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="C26" t="n">
-        <v>522.7298813483484</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="D26" t="n">
-        <v>522.7298813483484</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="E26" t="n">
-        <v>271.3207425698045</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="F26" t="n">
         <v>19.91160379126067</v>
@@ -6226,19 +6226,19 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J26" t="n">
-        <v>36.15877341342204</v>
+        <v>139.011295974052</v>
       </c>
       <c r="K26" t="n">
-        <v>111.2475872787748</v>
+        <v>214.1001098394048</v>
       </c>
       <c r="L26" t="n">
-        <v>241.3036625438003</v>
+        <v>344.1561851044302</v>
       </c>
       <c r="M26" t="n">
-        <v>434.4007957108794</v>
+        <v>520.5380654037821</v>
       </c>
       <c r="N26" t="n">
-        <v>618.2505276138862</v>
+        <v>704.3877973067889</v>
       </c>
       <c r="O26" t="n">
         <v>864.6566245307371</v>
@@ -6262,16 +6262,16 @@
         <v>995.5801895630336</v>
       </c>
       <c r="V26" t="n">
-        <v>995.5801895630336</v>
+        <v>744.1710507844898</v>
       </c>
       <c r="W26" t="n">
-        <v>744.1710507844898</v>
+        <v>522.7298813483484</v>
       </c>
       <c r="X26" t="n">
-        <v>744.1710507844898</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="Y26" t="n">
-        <v>522.7298813483484</v>
+        <v>19.91160379126067</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.91160379126067</v>
+        <v>452.1546760856924</v>
       </c>
       <c r="C27" t="n">
-        <v>19.91160379126067</v>
+        <v>452.1546760856924</v>
       </c>
       <c r="D27" t="n">
-        <v>19.91160379126067</v>
+        <v>452.1546760856924</v>
       </c>
       <c r="E27" t="n">
-        <v>19.91160379126067</v>
+        <v>452.1546760856924</v>
       </c>
       <c r="F27" t="n">
-        <v>19.91160379126067</v>
+        <v>305.6201181125773</v>
       </c>
       <c r="G27" t="n">
-        <v>19.91160379126067</v>
+        <v>168.1466434042923</v>
       </c>
       <c r="H27" t="n">
-        <v>19.91160379126067</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="I27" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J27" t="n">
-        <v>19.91160379126067</v>
+        <v>135.6005847439774</v>
       </c>
       <c r="K27" t="n">
-        <v>229.7230056322652</v>
+        <v>198.1317383343036</v>
       </c>
       <c r="L27" t="n">
         <v>360.1263996132634</v>
@@ -6329,28 +6329,28 @@
         <v>995.5801895630336</v>
       </c>
       <c r="R27" t="n">
-        <v>995.5801895630336</v>
+        <v>972.4766980019444</v>
       </c>
       <c r="S27" t="n">
-        <v>845.517582965618</v>
+        <v>972.4766980019444</v>
       </c>
       <c r="T27" t="n">
-        <v>734.61374862377</v>
+        <v>775.3581090697567</v>
       </c>
       <c r="U27" t="n">
-        <v>506.4728508015472</v>
+        <v>660.0061762912252</v>
       </c>
       <c r="V27" t="n">
-        <v>271.3207425698045</v>
+        <v>660.0061762912252</v>
       </c>
       <c r="W27" t="n">
-        <v>19.91160379126067</v>
+        <v>660.0061762912252</v>
       </c>
       <c r="X27" t="n">
-        <v>19.91160379126067</v>
+        <v>452.1546760856924</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.91160379126067</v>
+        <v>452.1546760856924</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.8477867191676</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="C28" t="n">
         <v>19.91160379126067</v>
@@ -6390,7 +6390,7 @@
         <v>117.8973084810499</v>
       </c>
       <c r="L28" t="n">
-        <v>298.8117097895529</v>
+        <v>298.811709789553</v>
       </c>
       <c r="M28" t="n">
         <v>499.9497029930582</v>
@@ -6408,28 +6408,28 @@
         <v>995.5801895630336</v>
       </c>
       <c r="R28" t="n">
-        <v>863.8930510718942</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="S28" t="n">
-        <v>863.8930510718942</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="T28" t="n">
-        <v>863.8930510718942</v>
+        <v>774.1390201268922</v>
       </c>
       <c r="U28" t="n">
-        <v>863.8930510718942</v>
+        <v>522.7298813483484</v>
       </c>
       <c r="V28" t="n">
-        <v>863.8930510718942</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="W28" t="n">
-        <v>819.2783815909547</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="X28" t="n">
-        <v>591.2888306929374</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="Y28" t="n">
-        <v>370.4962515494072</v>
+        <v>19.91160379126067</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>522.7298813483484</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="C29" t="n">
         <v>271.3207425698045</v>
       </c>
       <c r="D29" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="E29" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="F29" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="G29" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="H29" t="n">
         <v>19.91160379126067</v>
@@ -6463,22 +6463,22 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J29" t="n">
-        <v>36.15877341342204</v>
+        <v>139.011295974052</v>
       </c>
       <c r="K29" t="n">
-        <v>111.2475872787748</v>
+        <v>214.1001098394048</v>
       </c>
       <c r="L29" t="n">
-        <v>241.3036625438003</v>
+        <v>344.1561851044302</v>
       </c>
       <c r="M29" t="n">
-        <v>417.6855428431521</v>
+        <v>520.5380654037821</v>
       </c>
       <c r="N29" t="n">
-        <v>601.535274746159</v>
+        <v>704.3877973067889</v>
       </c>
       <c r="O29" t="n">
-        <v>847.9413716630098</v>
+        <v>864.6566245307371</v>
       </c>
       <c r="P29" t="n">
         <v>966.9413597570564</v>
@@ -6490,25 +6490,25 @@
         <v>995.5801895630336</v>
       </c>
       <c r="S29" t="n">
-        <v>837.9989992848268</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="T29" t="n">
-        <v>774.1390201268922</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="U29" t="n">
-        <v>774.1390201268922</v>
+        <v>744.1710507844898</v>
       </c>
       <c r="V29" t="n">
-        <v>774.1390201268922</v>
+        <v>492.761912005946</v>
       </c>
       <c r="W29" t="n">
-        <v>774.1390201268922</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="X29" t="n">
-        <v>774.1390201268922</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="Y29" t="n">
-        <v>522.7298813483484</v>
+        <v>271.3207425698045</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>457.080165452273</v>
+        <v>73.02654452499155</v>
       </c>
       <c r="C30" t="n">
-        <v>457.080165452273</v>
+        <v>73.02654452499155</v>
       </c>
       <c r="D30" t="n">
-        <v>457.080165452273</v>
+        <v>73.02654452499155</v>
       </c>
       <c r="E30" t="n">
-        <v>405.1454112693037</v>
+        <v>73.02654452499155</v>
       </c>
       <c r="F30" t="n">
-        <v>258.6108532961887</v>
+        <v>73.02654452499155</v>
       </c>
       <c r="G30" t="n">
-        <v>121.1373785879038</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H30" t="n">
         <v>19.91160379126067</v>
@@ -6545,49 +6545,49 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K30" t="n">
-        <v>82.44275738158687</v>
+        <v>113.7203026964126</v>
       </c>
       <c r="L30" t="n">
-        <v>212.8461513625851</v>
+        <v>360.1263996132634</v>
       </c>
       <c r="M30" t="n">
-        <v>384.3776295799438</v>
+        <v>531.6578778306221</v>
       </c>
       <c r="N30" t="n">
-        <v>574.8576805336201</v>
+        <v>722.1379287842983</v>
       </c>
       <c r="O30" t="n">
-        <v>726.8899186589983</v>
+        <v>874.1701669096767</v>
       </c>
       <c r="P30" t="n">
-        <v>829.5761269102123</v>
+        <v>976.8563751608907</v>
       </c>
       <c r="Q30" t="n">
         <v>995.5801895630336</v>
       </c>
       <c r="R30" t="n">
-        <v>972.4766980019444</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="S30" t="n">
-        <v>822.4140914045288</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="T30" t="n">
-        <v>625.295502472341</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="U30" t="n">
-        <v>625.295502472341</v>
+        <v>767.4392917408109</v>
       </c>
       <c r="V30" t="n">
-        <v>625.295502472341</v>
+        <v>532.2871835090682</v>
       </c>
       <c r="W30" t="n">
-        <v>625.295502472341</v>
+        <v>280.8780447305244</v>
       </c>
       <c r="X30" t="n">
-        <v>625.295502472341</v>
+        <v>73.02654452499155</v>
       </c>
       <c r="Y30" t="n">
-        <v>625.295502472341</v>
+        <v>73.02654452499155</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="C31" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="D31" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="E31" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="F31" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="G31" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="H31" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="I31" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="J31" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="K31" t="n">
-        <v>117.89730848105</v>
+        <v>117.8973084810499</v>
       </c>
       <c r="L31" t="n">
-        <v>298.811709789553</v>
+        <v>298.8117097895529</v>
       </c>
       <c r="M31" t="n">
-        <v>499.9497029930582</v>
+        <v>499.9497029930581</v>
       </c>
       <c r="N31" t="n">
         <v>701.739700705557</v>
@@ -6645,28 +6645,28 @@
         <v>995.5801895630336</v>
       </c>
       <c r="R31" t="n">
-        <v>863.8930510718942</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="S31" t="n">
-        <v>655.9841062530078</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="T31" t="n">
-        <v>430.2400059485198</v>
+        <v>793.9148960315007</v>
       </c>
       <c r="U31" t="n">
-        <v>178.8308671699759</v>
+        <v>542.5057572529569</v>
       </c>
       <c r="V31" t="n">
-        <v>19.91160379126067</v>
+        <v>291.096618474413</v>
       </c>
       <c r="W31" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="X31" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>271.3207425698045</v>
+        <v>525.3427994514331</v>
       </c>
       <c r="C32" t="n">
-        <v>271.3207425698045</v>
+        <v>525.3427994514331</v>
       </c>
       <c r="D32" t="n">
-        <v>271.3207425698045</v>
+        <v>525.3427994514331</v>
       </c>
       <c r="E32" t="n">
-        <v>271.3207425698045</v>
+        <v>273.9336606728892</v>
       </c>
       <c r="F32" t="n">
         <v>271.3207425698045</v>
@@ -6724,28 +6724,28 @@
         <v>995.5801895630336</v>
       </c>
       <c r="R32" t="n">
-        <v>995.5801895630336</v>
+        <v>991.8142391843268</v>
       </c>
       <c r="S32" t="n">
-        <v>837.9989992848268</v>
+        <v>991.8142391843268</v>
       </c>
       <c r="T32" t="n">
-        <v>622.9366983304769</v>
+        <v>776.7519382299769</v>
       </c>
       <c r="U32" t="n">
-        <v>371.5275595519331</v>
+        <v>776.7519382299769</v>
       </c>
       <c r="V32" t="n">
-        <v>271.3207425698045</v>
+        <v>776.7519382299769</v>
       </c>
       <c r="W32" t="n">
-        <v>271.3207425698045</v>
+        <v>776.7519382299769</v>
       </c>
       <c r="X32" t="n">
-        <v>271.3207425698045</v>
+        <v>776.7519382299769</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.3207425698045</v>
+        <v>776.7519382299769</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>331.8381077806727</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="C33" t="n">
-        <v>157.3850784995456</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="D33" t="n">
-        <v>157.3850784995456</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="E33" t="n">
-        <v>157.3850784995456</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="F33" t="n">
-        <v>157.3850784995456</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="G33" t="n">
-        <v>19.91160379126067</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="H33" t="n">
-        <v>19.91160379126067</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="I33" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J33" t="n">
-        <v>135.6005847439774</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="K33" t="n">
-        <v>198.1317383343036</v>
+        <v>82.44275738158687</v>
       </c>
       <c r="L33" t="n">
-        <v>328.5351323153018</v>
+        <v>328.8488542984377</v>
       </c>
       <c r="M33" t="n">
-        <v>500.0666105326604</v>
+        <v>500.3803325157963</v>
       </c>
       <c r="N33" t="n">
-        <v>690.5466614863367</v>
+        <v>690.8603834694726</v>
       </c>
       <c r="O33" t="n">
-        <v>842.5788996117151</v>
+        <v>842.8926215948509</v>
       </c>
       <c r="P33" t="n">
         <v>976.8563751608907</v>
@@ -6803,28 +6803,28 @@
         <v>995.5801895630336</v>
       </c>
       <c r="R33" t="n">
-        <v>995.5801895630336</v>
+        <v>972.4766980019444</v>
       </c>
       <c r="S33" t="n">
-        <v>845.517582965618</v>
+        <v>972.4766980019444</v>
       </c>
       <c r="T33" t="n">
-        <v>845.517582965618</v>
+        <v>972.4766980019444</v>
       </c>
       <c r="U33" t="n">
-        <v>845.517582965618</v>
+        <v>744.3358001797217</v>
       </c>
       <c r="V33" t="n">
-        <v>707.8137435656946</v>
+        <v>509.183691947979</v>
       </c>
       <c r="W33" t="n">
-        <v>707.8137435656946</v>
+        <v>257.7745531694351</v>
       </c>
       <c r="X33" t="n">
-        <v>707.8137435656946</v>
+        <v>257.7745531694351</v>
       </c>
       <c r="Y33" t="n">
-        <v>500.0534448007407</v>
+        <v>66.92086860764923</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>338.9644261315033</v>
+        <v>927.7216050599768</v>
       </c>
       <c r="C34" t="n">
-        <v>170.0282432035964</v>
+        <v>758.7854221320699</v>
       </c>
       <c r="D34" t="n">
-        <v>19.91160379126067</v>
+        <v>608.6687827197342</v>
       </c>
       <c r="E34" t="n">
-        <v>19.91160379126067</v>
+        <v>460.7556891373411</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91160379126067</v>
+        <v>313.8657416394307</v>
       </c>
       <c r="G34" t="n">
-        <v>19.91160379126067</v>
+        <v>145.2320042989549</v>
       </c>
       <c r="H34" t="n">
-        <v>19.91160379126067</v>
+        <v>145.2320042989549</v>
       </c>
       <c r="I34" t="n">
         <v>19.91160379126067</v>
@@ -6888,22 +6888,22 @@
         <v>995.5801895630336</v>
       </c>
       <c r="T34" t="n">
-        <v>769.8360892585456</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="U34" t="n">
-        <v>769.8360892585456</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="V34" t="n">
-        <v>769.8360892585456</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="W34" t="n">
-        <v>769.8360892585456</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="X34" t="n">
-        <v>541.8465383605283</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.612890961743</v>
+        <v>927.7216050599768</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>665.7224147353601</v>
+        <v>692.5312363017297</v>
       </c>
       <c r="C35" t="n">
-        <v>665.7224147353601</v>
+        <v>692.5312363017297</v>
       </c>
       <c r="D35" t="n">
-        <v>665.7224147353601</v>
+        <v>692.5312363017297</v>
       </c>
       <c r="E35" t="n">
-        <v>665.7224147353601</v>
+        <v>467.6250151073514</v>
       </c>
       <c r="F35" t="n">
-        <v>440.8161935409817</v>
+        <v>242.7187939129731</v>
       </c>
       <c r="G35" t="n">
-        <v>215.9099723466032</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="H35" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="I35" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="J35" t="n">
-        <v>34.05974234075613</v>
+        <v>34.05974234075642</v>
       </c>
       <c r="K35" t="n">
-        <v>109.1485562061089</v>
+        <v>109.1485562061092</v>
       </c>
       <c r="L35" t="n">
-        <v>239.2046314711351</v>
+        <v>239.2046314711346</v>
       </c>
       <c r="M35" t="n">
-        <v>415.5865117704869</v>
+        <v>415.5865117704865</v>
       </c>
       <c r="N35" t="n">
-        <v>599.4362436734938</v>
+        <v>599.4362436734933</v>
       </c>
       <c r="O35" t="n">
-        <v>759.7050708974419</v>
+        <v>759.7050708974415</v>
       </c>
       <c r="P35" t="n">
-        <v>861.9898061237612</v>
+        <v>861.9898061237608</v>
       </c>
       <c r="Q35" t="n">
-        <v>890.6286359297385</v>
+        <v>890.628635929738</v>
       </c>
       <c r="R35" t="n">
-        <v>890.6286359297385</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="S35" t="n">
-        <v>890.6286359297385</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="T35" t="n">
-        <v>890.6286359297385</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="U35" t="n">
-        <v>890.6286359297385</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="V35" t="n">
-        <v>890.6286359297385</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="W35" t="n">
-        <v>890.6286359297385</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="X35" t="n">
-        <v>665.7224147353601</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="Y35" t="n">
-        <v>665.7224147353601</v>
+        <v>886.8626855510312</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>488.9765317134622</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="C36" t="n">
-        <v>314.5235024323352</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="D36" t="n">
-        <v>314.5235024323352</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="E36" t="n">
-        <v>155.2860474268797</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="F36" t="n">
-        <v>155.2860474268797</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="G36" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="H36" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="I36" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="J36" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="K36" t="n">
-        <v>80.34372630892096</v>
+        <v>124.7714519989696</v>
       </c>
       <c r="L36" t="n">
-        <v>210.7471202899192</v>
+        <v>255.1748459799678</v>
       </c>
       <c r="M36" t="n">
-        <v>426.7063241973269</v>
+        <v>426.7063241973265</v>
       </c>
       <c r="N36" t="n">
-        <v>617.1863751510032</v>
+        <v>617.1863751510027</v>
       </c>
       <c r="O36" t="n">
-        <v>769.2186132763816</v>
+        <v>769.2186132763811</v>
       </c>
       <c r="P36" t="n">
-        <v>871.9048215275956</v>
+        <v>871.9048215275951</v>
       </c>
       <c r="Q36" t="n">
-        <v>890.6286359297385</v>
+        <v>890.628635929738</v>
       </c>
       <c r="R36" t="n">
-        <v>882.0980899279087</v>
+        <v>890.628635929738</v>
       </c>
       <c r="S36" t="n">
-        <v>882.0980899279087</v>
+        <v>890.628635929738</v>
       </c>
       <c r="T36" t="n">
-        <v>882.0980899279087</v>
+        <v>890.628635929738</v>
       </c>
       <c r="U36" t="n">
-        <v>882.0980899279087</v>
+        <v>675.4765153128842</v>
       </c>
       <c r="V36" t="n">
-        <v>882.0980899279087</v>
+        <v>450.5702941185059</v>
       </c>
       <c r="W36" t="n">
-        <v>657.1918687335303</v>
+        <v>225.6640729241276</v>
       </c>
       <c r="X36" t="n">
-        <v>657.1918687335303</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="Y36" t="n">
-        <v>657.1918687335303</v>
+        <v>17.81257271859476</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>890.6286359297385</v>
+        <v>312.0691561541959</v>
       </c>
       <c r="C37" t="n">
-        <v>721.6924530018316</v>
+        <v>143.132973226289</v>
       </c>
       <c r="D37" t="n">
-        <v>721.6924530018316</v>
+        <v>143.132973226289</v>
       </c>
       <c r="E37" t="n">
-        <v>573.7793594194385</v>
+        <v>143.132973226289</v>
       </c>
       <c r="F37" t="n">
-        <v>426.8894119215281</v>
+        <v>143.132973226289</v>
       </c>
       <c r="G37" t="n">
-        <v>258.2556745810523</v>
+        <v>143.132973226289</v>
       </c>
       <c r="H37" t="n">
-        <v>103.761934167451</v>
+        <v>143.132973226289</v>
       </c>
       <c r="I37" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="J37" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="K37" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="L37" t="n">
-        <v>198.7269740270978</v>
+        <v>195.0714213037289</v>
       </c>
       <c r="M37" t="n">
-        <v>394.998149359763</v>
+        <v>396.2094145072341</v>
       </c>
       <c r="N37" t="n">
-        <v>596.7881470722618</v>
+        <v>597.9994122197329</v>
       </c>
       <c r="O37" t="n">
-        <v>767.1575751028248</v>
+        <v>768.3688402502959</v>
       </c>
       <c r="P37" t="n">
-        <v>889.417370782267</v>
+        <v>890.628635929738</v>
       </c>
       <c r="Q37" t="n">
-        <v>890.6286359297385</v>
+        <v>890.628635929738</v>
       </c>
       <c r="R37" t="n">
-        <v>890.6286359297385</v>
+        <v>758.9414974385986</v>
       </c>
       <c r="S37" t="n">
-        <v>890.6286359297385</v>
+        <v>551.0325526197122</v>
       </c>
       <c r="T37" t="n">
-        <v>890.6286359297385</v>
+        <v>551.0325526197122</v>
       </c>
       <c r="U37" t="n">
-        <v>890.6286359297385</v>
+        <v>326.1263314253339</v>
       </c>
       <c r="V37" t="n">
-        <v>890.6286359297385</v>
+        <v>326.1263314253339</v>
       </c>
       <c r="W37" t="n">
-        <v>890.6286359297385</v>
+        <v>326.1263314253339</v>
       </c>
       <c r="X37" t="n">
-        <v>890.6286359297385</v>
+        <v>326.1263314253339</v>
       </c>
       <c r="Y37" t="n">
-        <v>890.6286359297385</v>
+        <v>326.1263314253339</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.81257271859476</v>
+        <v>440.8161935409814</v>
       </c>
       <c r="C38" t="n">
-        <v>17.81257271859476</v>
+        <v>440.8161935409814</v>
       </c>
       <c r="D38" t="n">
-        <v>17.81257271859476</v>
+        <v>440.8161935409814</v>
       </c>
       <c r="E38" t="n">
-        <v>17.81257271859476</v>
+        <v>242.7187939129731</v>
       </c>
       <c r="F38" t="n">
         <v>17.81257271859476</v>
@@ -7174,52 +7174,52 @@
         <v>17.81257271859476</v>
       </c>
       <c r="J38" t="n">
-        <v>34.05974234075612</v>
+        <v>34.05974234075642</v>
       </c>
       <c r="K38" t="n">
-        <v>109.1485562061089</v>
+        <v>109.1485562061092</v>
       </c>
       <c r="L38" t="n">
-        <v>239.2046314711343</v>
+        <v>239.2046314711346</v>
       </c>
       <c r="M38" t="n">
-        <v>415.5865117704862</v>
+        <v>415.5865117704865</v>
       </c>
       <c r="N38" t="n">
-        <v>599.436243673493</v>
+        <v>599.4362436734933</v>
       </c>
       <c r="O38" t="n">
-        <v>759.7050708974413</v>
+        <v>759.7050708974415</v>
       </c>
       <c r="P38" t="n">
-        <v>861.9898061237606</v>
+        <v>861.9898061237608</v>
       </c>
       <c r="Q38" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="R38" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="S38" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="T38" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="U38" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="V38" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="W38" t="n">
-        <v>692.5312363017295</v>
+        <v>665.7224147353597</v>
       </c>
       <c r="X38" t="n">
-        <v>467.6250151073513</v>
+        <v>665.7224147353597</v>
       </c>
       <c r="Y38" t="n">
-        <v>242.718793912973</v>
+        <v>440.8161935409814</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>93.63499801137789</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="C39" t="n">
-        <v>93.63499801137789</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="D39" t="n">
-        <v>93.63499801137789</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="E39" t="n">
-        <v>93.63499801137789</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="F39" t="n">
         <v>17.81257271859476</v>
@@ -7256,49 +7256,49 @@
         <v>17.81257271859476</v>
       </c>
       <c r="K39" t="n">
-        <v>80.34372630892096</v>
+        <v>124.7714519989696</v>
       </c>
       <c r="L39" t="n">
-        <v>255.1748459799676</v>
+        <v>255.1748459799678</v>
       </c>
       <c r="M39" t="n">
-        <v>426.7063241973262</v>
+        <v>426.7063241973265</v>
       </c>
       <c r="N39" t="n">
-        <v>617.1863751510025</v>
+        <v>617.1863751510027</v>
       </c>
       <c r="O39" t="n">
-        <v>769.2186132763809</v>
+        <v>769.2186132763811</v>
       </c>
       <c r="P39" t="n">
-        <v>871.9048215275949</v>
+        <v>871.9048215275951</v>
       </c>
       <c r="Q39" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="R39" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="S39" t="n">
-        <v>740.5660293323222</v>
+        <v>890.628635929738</v>
       </c>
       <c r="T39" t="n">
-        <v>543.4474404001344</v>
+        <v>890.628635929738</v>
       </c>
       <c r="U39" t="n">
-        <v>318.5412192057561</v>
+        <v>665.7224147353597</v>
       </c>
       <c r="V39" t="n">
-        <v>318.5412192057561</v>
+        <v>440.8161935409814</v>
       </c>
       <c r="W39" t="n">
-        <v>93.63499801137789</v>
+        <v>215.9099723466031</v>
       </c>
       <c r="X39" t="n">
-        <v>93.63499801137789</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="Y39" t="n">
-        <v>93.63499801137789</v>
+        <v>17.81257271859476</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.26150751636331</v>
+        <v>488.1875919559682</v>
       </c>
       <c r="C40" t="n">
-        <v>34.26150751636331</v>
+        <v>488.1875919559682</v>
       </c>
       <c r="D40" t="n">
-        <v>34.26150751636331</v>
+        <v>338.0709525436324</v>
       </c>
       <c r="E40" t="n">
-        <v>34.26150751636331</v>
+        <v>190.1578589612393</v>
       </c>
       <c r="F40" t="n">
-        <v>34.26150751636331</v>
+        <v>186.4463100590706</v>
       </c>
       <c r="G40" t="n">
-        <v>34.26150751636331</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="H40" t="n">
-        <v>34.26150751636331</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="I40" t="n">
         <v>17.81257271859476</v>
@@ -7338,46 +7338,46 @@
         <v>17.81257271859476</v>
       </c>
       <c r="L40" t="n">
-        <v>195.0714213037287</v>
+        <v>198.7269740270978</v>
       </c>
       <c r="M40" t="n">
-        <v>396.2094145072339</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N40" t="n">
-        <v>597.9994122197327</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O40" t="n">
-        <v>768.3688402502956</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P40" t="n">
-        <v>890.6286359297378</v>
+        <v>889.4173707822665</v>
       </c>
       <c r="Q40" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="R40" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="S40" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="T40" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="U40" t="n">
-        <v>665.7224147353595</v>
+        <v>890.628635929738</v>
       </c>
       <c r="V40" t="n">
-        <v>665.7224147353595</v>
+        <v>890.628635929738</v>
       </c>
       <c r="W40" t="n">
-        <v>440.8161935409813</v>
+        <v>890.628635929738</v>
       </c>
       <c r="X40" t="n">
-        <v>215.909972346603</v>
+        <v>890.628635929738</v>
       </c>
       <c r="Y40" t="n">
-        <v>215.909972346603</v>
+        <v>669.8360567862079</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>467.6250151073513</v>
+        <v>661.9564643566529</v>
       </c>
       <c r="C41" t="n">
-        <v>467.6250151073513</v>
+        <v>661.9564643566529</v>
       </c>
       <c r="D41" t="n">
-        <v>467.6250151073513</v>
+        <v>661.9564643566529</v>
       </c>
       <c r="E41" t="n">
-        <v>467.6250151073513</v>
+        <v>589.6292793927933</v>
       </c>
       <c r="F41" t="n">
-        <v>242.718793912973</v>
+        <v>364.7230581984149</v>
       </c>
       <c r="G41" t="n">
-        <v>17.81257271859476</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="H41" t="n">
-        <v>17.81257271859476</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="I41" t="n">
         <v>17.81257271859476</v>
       </c>
       <c r="J41" t="n">
-        <v>34.05974234075597</v>
+        <v>34.0597423407562</v>
       </c>
       <c r="K41" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061093</v>
       </c>
       <c r="L41" t="n">
-        <v>239.2046314711343</v>
+        <v>239.2046314711349</v>
       </c>
       <c r="M41" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704866</v>
       </c>
       <c r="N41" t="n">
-        <v>599.436243673493</v>
+        <v>599.4362436734934</v>
       </c>
       <c r="O41" t="n">
-        <v>759.7050708974411</v>
+        <v>759.7050708974416</v>
       </c>
       <c r="P41" t="n">
-        <v>861.9898061237606</v>
+        <v>861.9898061237608</v>
       </c>
       <c r="Q41" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="R41" t="n">
-        <v>890.6286359297378</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="S41" t="n">
-        <v>890.6286359297378</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="T41" t="n">
-        <v>890.6286359297378</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="U41" t="n">
-        <v>890.6286359297378</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="V41" t="n">
-        <v>890.6286359297378</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="W41" t="n">
-        <v>890.6286359297378</v>
+        <v>886.8626855510312</v>
       </c>
       <c r="X41" t="n">
-        <v>890.6286359297378</v>
+        <v>661.9564643566529</v>
       </c>
       <c r="Y41" t="n">
-        <v>692.5312363017295</v>
+        <v>661.9564643566529</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.81257271859476</v>
+        <v>445.5003342420828</v>
       </c>
       <c r="C42" t="n">
-        <v>17.81257271859476</v>
+        <v>445.5003342420828</v>
       </c>
       <c r="D42" t="n">
-        <v>17.81257271859476</v>
+        <v>445.5003342420828</v>
       </c>
       <c r="E42" t="n">
-        <v>17.81257271859476</v>
+        <v>286.2628792366273</v>
       </c>
       <c r="F42" t="n">
-        <v>17.81257271859476</v>
+        <v>286.2628792366273</v>
       </c>
       <c r="G42" t="n">
-        <v>17.81257271859476</v>
+        <v>148.7894045283423</v>
       </c>
       <c r="H42" t="n">
-        <v>17.81257271859476</v>
+        <v>64.8218375349833</v>
       </c>
       <c r="I42" t="n">
         <v>17.81257271859476</v>
@@ -7493,49 +7493,49 @@
         <v>17.81257271859476</v>
       </c>
       <c r="K42" t="n">
-        <v>124.7714519989693</v>
+        <v>124.7714519989696</v>
       </c>
       <c r="L42" t="n">
-        <v>255.1748459799676</v>
+        <v>255.1748459799678</v>
       </c>
       <c r="M42" t="n">
-        <v>426.7063241973262</v>
+        <v>426.7063241973265</v>
       </c>
       <c r="N42" t="n">
-        <v>617.1863751510025</v>
+        <v>617.1863751510027</v>
       </c>
       <c r="O42" t="n">
-        <v>769.2186132763809</v>
+        <v>769.2186132763811</v>
       </c>
       <c r="P42" t="n">
-        <v>871.9048215275949</v>
+        <v>871.9048215275951</v>
       </c>
       <c r="Q42" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="R42" t="n">
-        <v>890.6286359297378</v>
+        <v>867.5251443686489</v>
       </c>
       <c r="S42" t="n">
-        <v>890.6286359297378</v>
+        <v>867.5251443686489</v>
       </c>
       <c r="T42" t="n">
-        <v>890.6286359297378</v>
+        <v>670.4065554364611</v>
       </c>
       <c r="U42" t="n">
-        <v>665.7224147353595</v>
+        <v>445.5003342420828</v>
       </c>
       <c r="V42" t="n">
-        <v>440.8161935409813</v>
+        <v>445.5003342420828</v>
       </c>
       <c r="W42" t="n">
-        <v>433.4243716890815</v>
+        <v>445.5003342420828</v>
       </c>
       <c r="X42" t="n">
-        <v>225.5728714835487</v>
+        <v>445.5003342420828</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.81257271859476</v>
+        <v>445.5003342420828</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17.81257271859476</v>
+        <v>206.222185963679</v>
       </c>
       <c r="C43" t="n">
-        <v>17.81257271859476</v>
+        <v>206.222185963679</v>
       </c>
       <c r="D43" t="n">
-        <v>17.81257271859476</v>
+        <v>206.222185963679</v>
       </c>
       <c r="E43" t="n">
-        <v>17.81257271859476</v>
+        <v>206.222185963679</v>
       </c>
       <c r="F43" t="n">
-        <v>17.81257271859476</v>
+        <v>206.222185963679</v>
       </c>
       <c r="G43" t="n">
-        <v>17.81257271859476</v>
+        <v>37.58844862320322</v>
       </c>
       <c r="H43" t="n">
-        <v>17.81257271859476</v>
+        <v>37.58844862320322</v>
       </c>
       <c r="I43" t="n">
-        <v>17.81257271859476</v>
+        <v>37.58844862320322</v>
       </c>
       <c r="J43" t="n">
         <v>17.81257271859476</v>
@@ -7581,40 +7581,40 @@
         <v>399.8649672306029</v>
       </c>
       <c r="N43" t="n">
-        <v>597.9994122197327</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O43" t="n">
-        <v>768.3688402502956</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P43" t="n">
-        <v>890.6286359297378</v>
+        <v>889.4173707822665</v>
       </c>
       <c r="Q43" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="R43" t="n">
-        <v>890.6286359297378</v>
+        <v>890.628635929738</v>
       </c>
       <c r="S43" t="n">
-        <v>890.6286359297378</v>
+        <v>682.7196911108516</v>
       </c>
       <c r="T43" t="n">
-        <v>890.6286359297378</v>
+        <v>457.8134699164733</v>
       </c>
       <c r="U43" t="n">
-        <v>692.5312363017295</v>
+        <v>387.8706507939187</v>
       </c>
       <c r="V43" t="n">
-        <v>467.6250151073513</v>
+        <v>387.8706507939187</v>
       </c>
       <c r="W43" t="n">
-        <v>242.718793912973</v>
+        <v>387.8706507939187</v>
       </c>
       <c r="X43" t="n">
-        <v>17.81257271859476</v>
+        <v>387.8706507939187</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.81257271859476</v>
+        <v>387.8706507939187</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>242.718793912973</v>
       </c>
       <c r="F44" t="n">
-        <v>242.718793912973</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="G44" t="n">
         <v>17.81257271859475</v>
@@ -7675,19 +7675,19 @@
         <v>886.8626855510307</v>
       </c>
       <c r="S44" t="n">
-        <v>729.281495272824</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="T44" t="n">
-        <v>514.2191943184741</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="U44" t="n">
-        <v>514.2191943184741</v>
+        <v>661.9564643566525</v>
       </c>
       <c r="V44" t="n">
-        <v>289.3129731240959</v>
+        <v>437.0502431622743</v>
       </c>
       <c r="W44" t="n">
-        <v>242.718793912973</v>
+        <v>437.0502431622743</v>
       </c>
       <c r="X44" t="n">
         <v>242.718793912973</v>
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>325.9844373853015</v>
+        <v>306.8014999391828</v>
       </c>
       <c r="C45" t="n">
-        <v>325.9844373853015</v>
+        <v>132.3484706580558</v>
       </c>
       <c r="D45" t="n">
-        <v>177.0500277240503</v>
+        <v>132.3484706580558</v>
       </c>
       <c r="E45" t="n">
         <v>17.81257271859475</v>
@@ -7733,7 +7733,7 @@
         <v>80.34372630892095</v>
       </c>
       <c r="L45" t="n">
-        <v>255.1748459799673</v>
+        <v>210.7471202899192</v>
       </c>
       <c r="M45" t="n">
         <v>426.706324197326</v>
@@ -7763,16 +7763,16 @@
         <v>890.6286359297376</v>
       </c>
       <c r="V45" t="n">
-        <v>719.1059955997478</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="W45" t="n">
-        <v>494.1997744053696</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="X45" t="n">
-        <v>494.1997744053696</v>
+        <v>682.7771357242048</v>
       </c>
       <c r="Y45" t="n">
-        <v>494.1997744053696</v>
+        <v>475.0168369592508</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.4122259817063</v>
+        <v>483.4528969693167</v>
       </c>
       <c r="C46" t="n">
-        <v>484.4760430537995</v>
+        <v>483.4528969693167</v>
       </c>
       <c r="D46" t="n">
-        <v>334.3594036414637</v>
+        <v>333.336257556981</v>
       </c>
       <c r="E46" t="n">
-        <v>186.4463100590706</v>
+        <v>333.336257556981</v>
       </c>
       <c r="F46" t="n">
         <v>186.4463100590706</v>
@@ -7809,19 +7809,19 @@
         <v>17.81257271859475</v>
       </c>
       <c r="K46" t="n">
-        <v>115.798277408384</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="L46" t="n">
-        <v>296.712678716887</v>
+        <v>198.7269740270978</v>
       </c>
       <c r="M46" t="n">
-        <v>497.8506719203922</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N46" t="n">
-        <v>699.640669632891</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O46" t="n">
-        <v>767.1575751028239</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P46" t="n">
         <v>889.4173707822661</v>
@@ -7830,28 +7830,28 @@
         <v>890.6286359297376</v>
       </c>
       <c r="R46" t="n">
-        <v>890.6286359297376</v>
+        <v>758.9414974385982</v>
       </c>
       <c r="S46" t="n">
-        <v>890.6286359297376</v>
+        <v>551.0325526197117</v>
       </c>
       <c r="T46" t="n">
-        <v>665.7224147353594</v>
+        <v>551.0325526197117</v>
       </c>
       <c r="U46" t="n">
-        <v>665.7224147353594</v>
+        <v>551.0325526197117</v>
       </c>
       <c r="V46" t="n">
-        <v>653.4122259817063</v>
+        <v>483.4528969693167</v>
       </c>
       <c r="W46" t="n">
-        <v>653.4122259817063</v>
+        <v>483.4528969693167</v>
       </c>
       <c r="X46" t="n">
-        <v>653.4122259817063</v>
+        <v>483.4528969693167</v>
       </c>
       <c r="Y46" t="n">
-        <v>653.4122259817063</v>
+        <v>483.4528969693167</v>
       </c>
     </row>
   </sheetData>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>9.23347882251322</v>
+        <v>9.233478822513248</v>
       </c>
       <c r="K12" t="n">
-        <v>44.87649059600795</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>44.87649059600776</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>74.61822397951553</v>
       </c>
       <c r="N13" t="n">
         <v>171.8177168444618</v>
@@ -8865,10 +8865,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>32.33862653307233</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.11945822879035</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>9.233478822513192</v>
+        <v>9.233478822513248</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.87649059600867</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.8764905960082</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9093,7 +9093,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>74.61822397951674</v>
+        <v>74.618223979516</v>
       </c>
       <c r="N16" t="n">
         <v>171.8177168444618</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>54.10996941852164</v>
+        <v>54.10996941852075</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>7.768307062037152</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>158.7822240432009</v>
       </c>
       <c r="M19" t="n">
-        <v>173.5936832621319</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
         <v>171.8177168444618</v>
@@ -9342,7 +9342,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879032</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>9.233478822513192</v>
+        <v>54.10996941852142</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.87649059600849</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,10 +9561,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037152</v>
       </c>
       <c r="L22" t="n">
-        <v>59.80676476058645</v>
+        <v>158.7822240432016</v>
       </c>
       <c r="M22" t="n">
         <v>178.5096609094456</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>103.8914369299293</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>103.8914369299292</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>9.233478822513192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>56.49095551835811</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>31.91037100804209</v>
       </c>
       <c r="P24" t="n">
-        <v>92.27697200757959</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>103.8914369299293</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,13 +9883,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>16.88409380578511</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>87.00734312414403</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>9.233478822513192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>148.7679275259377</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>31.91037100804201</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094458</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>103.8914369299293</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>87.00734312414406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>16.88409380578507</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>9.233478822513192</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>31.59348011598556</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>117.1744474099521</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>148.7679275259377</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,7 +10272,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446526</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>9.233478822513192</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>117.1744474099521</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>31.91037100804206</v>
+        <v>31.5934801159857</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10667,13 +10667,13 @@
         <v>9.233478822513192</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>44.87649059600868</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>44.87649059600915</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10749,10 +10749,10 @@
         <v>7.768307062037152</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>158.782224043202</v>
       </c>
       <c r="M37" t="n">
-        <v>173.5936832621326</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -10764,7 +10764,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879032</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>9.233478822513192</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>44.87649059600868</v>
       </c>
       <c r="L39" t="n">
-        <v>44.87649059600844</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>7.768307062037152</v>
       </c>
       <c r="L40" t="n">
-        <v>158.7822240432018</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
         <v>178.5096609094456</v>
@@ -10998,10 +10998,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0905856667276</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.11945822879032</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>9.233478822513192</v>
       </c>
       <c r="K42" t="n">
-        <v>44.87649059600845</v>
+        <v>44.87649059600868</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11229,16 +11229,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>168.1252393461092</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0905856667276</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.11945822879032</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>44.87649059600824</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037152</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
@@ -11469,10 +11469,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
-        <v>59.15022943595311</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0905856667272</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>308.5548042016715</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>159.2732110898276</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>357.0195174477805</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947055</v>
       </c>
       <c r="H11" t="n">
         <v>315.6487261371466</v>
       </c>
       <c r="I11" t="n">
-        <v>120.7842216425874</v>
+        <v>120.7842216425875</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3.72829087491985</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>28.50237542636265</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>126.5838097349789</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>41.63138400081209</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>46.53917216822467</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>195.1474030428659</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8594888440006</v>
+        <v>19.89277164471204</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>97.42815694278858</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>84.37393782983438</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H13" t="n">
         <v>152.9488030094653</v>
@@ -23439,7 +23439,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J13" t="n">
-        <v>19.57811714556239</v>
+        <v>19.5781171455624</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T13" t="n">
-        <v>0.829500319008929</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U13" t="n">
-        <v>63.60494786179913</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>29.48048434139389</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>3.052496406603041</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>160.0766826810461</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>142.615732788573</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>184.2188867592772</v>
       </c>
       <c r="G14" t="n">
         <v>412.9762562771396</v>
       </c>
       <c r="H14" t="n">
-        <v>315.6487261371465</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I14" t="n">
-        <v>120.7842216425874</v>
+        <v>120.7842216425875</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.728290874919793</v>
+        <v>3.72829087491985</v>
       </c>
       <c r="S14" t="n">
         <v>156.0053783754247</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>153.124543085685</v>
       </c>
       <c r="X14" t="n">
-        <v>173.6146750467408</v>
+        <v>147.0739416960348</v>
       </c>
       <c r="Y14" t="n">
-        <v>163.5807796736191</v>
+        <v>163.5807796736194</v>
       </c>
     </row>
     <row r="15">
@@ -23579,13 +23579,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.0987399612021</v>
@@ -23594,7 +23594,7 @@
         <v>100.2135170486767</v>
       </c>
       <c r="I15" t="n">
-        <v>46.53917216822465</v>
+        <v>46.53917216822467</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.87245664547832</v>
+        <v>22.87245664547835</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U15" t="n">
-        <v>3.202329861566056</v>
+        <v>82.7160084089042</v>
       </c>
       <c r="V15" t="n">
-        <v>10.14342816699076</v>
+        <v>10.14342816699104</v>
       </c>
       <c r="W15" t="n">
-        <v>176.6307821210642</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>69.65375905899394</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>124.0671965026173</v>
+        <v>57.32456528691606</v>
       </c>
       <c r="J16" t="n">
-        <v>19.57811714556237</v>
+        <v>19.5781171455624</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>205.8298553706975</v>
       </c>
       <c r="T16" t="n">
-        <v>223.4866593014431</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U16" t="n">
         <v>286.2621068442334</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>3.052496406602643</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>169.1564661392793</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>132.0258826382485</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>159.2732110898273</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>184.218886759277</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H17" t="n">
-        <v>315.6487261371465</v>
+        <v>92.9915671547123</v>
       </c>
       <c r="I17" t="n">
         <v>120.7842216425874</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>156.0053783754247</v>
       </c>
       <c r="T17" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.1595344087969</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>184.1043228616176</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>64.50384064628948</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8594888440006</v>
+        <v>148.0892741906404</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23913,7 +23913,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J19" t="n">
-        <v>19.57811714556237</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.42815694278796</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S19" t="n">
         <v>205.8298553706975</v>
       </c>
       <c r="T19" t="n">
-        <v>223.4866593014431</v>
+        <v>0.8295003190089005</v>
       </c>
       <c r="U19" t="n">
-        <v>63.60494786179891</v>
+        <v>109.7237983580678</v>
       </c>
       <c r="V19" t="n">
-        <v>29.48048434139355</v>
+        <v>29.48048434139378</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>63.86583935415678</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>160.0766826810462</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>142.6157327885732</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>162.2949068638746</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947052</v>
       </c>
       <c r="H20" t="n">
         <v>315.6487261371465</v>
       </c>
       <c r="I20" t="n">
-        <v>70.92769334865585</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U20" t="n">
-        <v>28.50237542636242</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>126.5838097349786</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24059,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.0987399612021</v>
@@ -24098,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>19.86931888748276</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8594888440006</v>
+        <v>3.20232986156617</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699087</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>29.03782417848521</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>32.52901621722762</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>64.03610946974867</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.9488030094653</v>
+        <v>106.9524737330713</v>
       </c>
       <c r="I22" t="n">
         <v>124.0671965026173</v>
@@ -24177,13 +24177,13 @@
         <v>130.370267106228</v>
       </c>
       <c r="S22" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8295003190086732</v>
+        <v>0.82950031900873</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2621068442334</v>
+        <v>63.60494786179896</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>3.0524964066027</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>116.3778443802491</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9762562771396</v>
+        <v>164.0812088863812</v>
       </c>
       <c r="H23" t="n">
         <v>315.6487261371465</v>
       </c>
       <c r="I23" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U23" t="n">
-        <v>2.264487018038466</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V23" t="n">
-        <v>108.5255007283549</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>100.3459213266546</v>
+        <v>250.7984326182204</v>
       </c>
       <c r="X23" t="n">
         <v>120.8360532877106</v>
@@ -24293,13 +24293,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>106.3874052802869</v>
       </c>
       <c r="H24" t="n">
         <v>100.2135170486767</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.87245664547832</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>148.5619805314415</v>
@@ -24341,7 +24341,7 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U24" t="n">
-        <v>35.38704388673213</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>2.799935770161198</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>2.795053892319658</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,10 +24414,10 @@
         <v>130.370267106228</v>
       </c>
       <c r="S25" t="n">
-        <v>12.659717397924</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.4866593014431</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2621068442334</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>133.0353226815034</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>157.980998350953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>412.9762562771396</v>
@@ -24502,16 +24502,16 @@
         <v>251.1595344087969</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>78.8572110793765</v>
       </c>
       <c r="W26" t="n">
-        <v>100.3459213266546</v>
+        <v>130.014210975633</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>120.8360532877106</v>
       </c>
       <c r="Y26" t="n">
-        <v>167.0111809142736</v>
+        <v>137.3428912652952</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>46.53917216822465</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.87245664547832</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T27" t="n">
-        <v>85.35260704443644</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>111.6610753932544</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>2.799935770161198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S28" t="n">
         <v>205.8298553706975</v>
       </c>
       <c r="T28" t="n">
-        <v>223.4866593014431</v>
+        <v>4.25990155966312</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2621068442334</v>
+        <v>37.36705945347495</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>3.242595933069595</v>
       </c>
       <c r="W28" t="n">
-        <v>242.3544755504609</v>
+        <v>37.62795094583259</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>116.3778443802491</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>105.7879942299245</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,7 +24697,7 @@
         <v>412.9762562771396</v>
       </c>
       <c r="H29" t="n">
-        <v>315.6487261371465</v>
+        <v>66.75367874638812</v>
       </c>
       <c r="I29" t="n">
         <v>120.7842216425874</v>
@@ -24730,25 +24730,25 @@
         <v>3.728290874919793</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T29" t="n">
-        <v>149.6902985784511</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1595344087969</v>
+        <v>2.264487018038466</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>78.8572110793765</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>130.0142109756329</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>137.3428912652952</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24767,16 +24767,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>106.2296738142614</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>83.51494863480849</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I30" t="n">
         <v>46.53917216822465</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.87245664547832</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8594888440006</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>2.799935770161198</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24861,7 +24861,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J31" t="n">
-        <v>19.57811714556237</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>23.83801870522552</v>
       </c>
       <c r="U31" t="n">
         <v>37.36705945347495</v>
       </c>
       <c r="V31" t="n">
-        <v>94.80757257889991</v>
+        <v>3.242595933069595</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>37.62795094583259</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>133.8387942727222</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>133.0353226815034</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>404.2892568196576</v>
       </c>
       <c r="G32" t="n">
         <v>164.0812088863812</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.264487018038466</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V32" t="n">
-        <v>228.5475096578276</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H33" t="n">
         <v>100.2135170486767</v>
       </c>
       <c r="I33" t="n">
-        <v>46.53917216822465</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.87245664547832</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T33" t="n">
         <v>195.1474030428659</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8594888440006</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>96.47378614350114</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>2.799935770161198</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>16.73754806113638</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>152.9488030094653</v>
       </c>
       <c r="I34" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>19.57811714556237</v>
@@ -25128,7 +25128,7 @@
         <v>205.8298553706975</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.4866593014431</v>
       </c>
       <c r="U34" t="n">
         <v>286.2621068442334</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.5633424272974</v>
+        <v>151.4046546940685</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>190.3457069066721</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>159.2732110898273</v>
       </c>
       <c r="F35" t="n">
-        <v>184.2188867592768</v>
+        <v>184.2188867592769</v>
       </c>
       <c r="G35" t="n">
-        <v>190.319097294705</v>
+        <v>190.3190972947051</v>
       </c>
       <c r="H35" t="n">
-        <v>119.5323005054181</v>
+        <v>315.6487261371465</v>
       </c>
       <c r="I35" t="n">
         <v>120.7842216425874</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>156.0053783754247</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>147.0739416960344</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H36" t="n">
         <v>100.2135170486767</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.42721610366687</v>
+        <v>22.87245664547832</v>
       </c>
       <c r="S36" t="n">
         <v>148.5619805314415</v>
@@ -25289,16 +25289,16 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8594888440006</v>
+        <v>12.85888943331528</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699076</v>
       </c>
       <c r="W36" t="n">
-        <v>29.03782417848498</v>
+        <v>29.0378241784851</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>165.9153766635106</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I37" t="n">
-        <v>38.97732866824961</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>19.57811714556237</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>223.4866593014431</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2621068442334</v>
+        <v>63.60494786179885</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>160.0766826810461</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,10 +25399,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>185.8139444405335</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>184.2188867592769</v>
       </c>
       <c r="G38" t="n">
         <v>412.9762562771396</v>
@@ -25453,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>153.1245430856847</v>
+        <v>126.5838097349785</v>
       </c>
       <c r="X38" t="n">
-        <v>147.0739416960346</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>163.5807796736191</v>
@@ -25481,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>70.00501135352859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.0987399612021</v>
@@ -25520,22 +25520,22 @@
         <v>22.87245664547832</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U39" t="n">
-        <v>3.202329861566113</v>
+        <v>3.202329861566056</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699076</v>
       </c>
       <c r="W39" t="n">
-        <v>29.03782417848515</v>
+        <v>29.0378241784851</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>9.656559571749199</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>141.7466146097842</v>
       </c>
       <c r="G40" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>152.9488030094653</v>
       </c>
       <c r="I40" t="n">
-        <v>107.7827510528264</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J40" t="n">
         <v>19.57811714556237</v>
@@ -25605,19 +25605,19 @@
         <v>223.4866593014431</v>
       </c>
       <c r="U40" t="n">
-        <v>63.60494786179891</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>63.86583935415655</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>3.0524964066027</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.0766826810461</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>310.3264569580408</v>
       </c>
       <c r="F41" t="n">
-        <v>184.218886759277</v>
+        <v>184.2188867592769</v>
       </c>
       <c r="G41" t="n">
-        <v>190.3190972947052</v>
+        <v>190.3190972947051</v>
       </c>
       <c r="H41" t="n">
         <v>315.6487261371465</v>
       </c>
       <c r="I41" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>156.0053783754247</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>147.0739416960345</v>
       </c>
       <c r="Y41" t="n">
-        <v>190.1215130243253</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25715,19 +25715,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>100.2135170486767</v>
+        <v>17.08562572525123</v>
       </c>
       <c r="I42" t="n">
-        <v>46.53917216822465</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.87245664547832</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>148.5619805314415</v>
       </c>
       <c r="T42" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.202329861566113</v>
+        <v>3.202329861566056</v>
       </c>
       <c r="V42" t="n">
-        <v>10.14342816699082</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>244.3770795275389</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>152.9488030094653</v>
@@ -25809,7 +25809,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J43" t="n">
-        <v>19.57811714556237</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>130.370267106228</v>
       </c>
       <c r="S43" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>223.4866593014431</v>
+        <v>0.8295003190086163</v>
       </c>
       <c r="U43" t="n">
-        <v>90.14568121250508</v>
+        <v>217.0187159129043</v>
       </c>
       <c r="V43" t="n">
-        <v>29.48048434139355</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>63.86583935415655</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>3.0524964066027</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>184.218886759277</v>
       </c>
       <c r="G44" t="n">
-        <v>190.3190972947052</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H44" t="n">
         <v>315.6487261371465</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1595344087969</v>
+        <v>28.50237542636248</v>
       </c>
       <c r="V44" t="n">
         <v>105.0950994877005</v>
       </c>
       <c r="W44" t="n">
-        <v>303.1127312984012</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>177.3429659216607</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25946,13 +25946,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>44.25454149533452</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -26003,16 +26003,16 @@
         <v>225.8594888440006</v>
       </c>
       <c r="V45" t="n">
-        <v>62.99317322273535</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>29.03782417848521</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.82950031900873</v>
+        <v>223.4866593014431</v>
       </c>
       <c r="U46" t="n">
         <v>286.2621068442334</v>
       </c>
       <c r="V46" t="n">
-        <v>239.9505564577115</v>
+        <v>185.2337842299369</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>478482.2247210462</v>
+        <v>478482.224721046</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>478482.2247210461</v>
+        <v>478482.224721046</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>478482.2247210461</v>
+        <v>478482.224721046</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>501243.891581946</v>
+        <v>501243.8915819461</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>501243.8915819459</v>
+        <v>501243.891581946</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>478482.2247210464</v>
+        <v>478482.2247210462</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>478482.2247210463</v>
+        <v>478482.2247210462</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>478482.2247210462</v>
+        <v>478482.2247210463</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>478482.2247210459</v>
+        <v>478482.224721046</v>
       </c>
     </row>
   </sheetData>
@@ -26322,13 +26322,13 @@
         <v>112882.7758080187</v>
       </c>
       <c r="E2" t="n">
-        <v>200976.6400394971</v>
+        <v>200976.640039497</v>
       </c>
       <c r="F2" t="n">
         <v>200976.6400394971</v>
       </c>
       <c r="G2" t="n">
-        <v>200976.6400394971</v>
+        <v>200976.6400394972</v>
       </c>
       <c r="H2" t="n">
         <v>200976.6400394971</v>
@@ -26340,22 +26340,22 @@
         <v>208781.4494352267</v>
       </c>
       <c r="K2" t="n">
-        <v>208781.4494352268</v>
+        <v>208781.4494352267</v>
       </c>
       <c r="L2" t="n">
         <v>208781.4494352268</v>
       </c>
       <c r="M2" t="n">
+        <v>200976.6400394973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>200976.6400394971</v>
+      </c>
+      <c r="O2" t="n">
+        <v>200976.6400394973</v>
+      </c>
+      <c r="P2" t="n">
         <v>200976.6400394972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>200976.6400394972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>200976.6400394971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>200976.6400394971</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531419.6532194045</v>
+        <v>531419.6532194044</v>
       </c>
       <c r="F3" t="n">
-        <v>8.041615094651678e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6977.205523429914</v>
+        <v>6977.20552342996</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>48948.46790415059</v>
+        <v>48948.46790415041</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>64504.44331886784</v>
       </c>
       <c r="E4" t="n">
-        <v>9729.808788323557</v>
+        <v>9729.808788323553</v>
       </c>
       <c r="F4" t="n">
-        <v>9729.808788323571</v>
+        <v>9729.80878832356</v>
       </c>
       <c r="G4" t="n">
-        <v>9729.808788323568</v>
+        <v>9729.808788323529</v>
       </c>
       <c r="H4" t="n">
-        <v>9729.808788323568</v>
+        <v>9729.808788323562</v>
       </c>
       <c r="I4" t="n">
         <v>14303.00595054212</v>
@@ -26450,13 +26450,13 @@
         <v>14303.00595054212</v>
       </c>
       <c r="M4" t="n">
-        <v>9729.80878832358</v>
+        <v>9729.808788323571</v>
       </c>
       <c r="N4" t="n">
-        <v>9729.808788323568</v>
+        <v>9729.808788323571</v>
       </c>
       <c r="O4" t="n">
-        <v>9729.808788323568</v>
+        <v>9729.808788323571</v>
       </c>
       <c r="P4" t="n">
         <v>9729.808788323564</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>26153.48139947166</v>
+      </c>
+      <c r="F5" t="n">
         <v>26153.48139947167</v>
       </c>
-      <c r="F5" t="n">
-        <v>26153.48139947169</v>
-      </c>
       <c r="G5" t="n">
-        <v>26153.48139947169</v>
+        <v>26153.48139947167</v>
       </c>
       <c r="H5" t="n">
-        <v>26153.48139947169</v>
+        <v>26153.48139947168</v>
       </c>
       <c r="I5" t="n">
         <v>27748.74501469778</v>
@@ -26502,7 +26502,7 @@
         <v>27748.74501469778</v>
       </c>
       <c r="M5" t="n">
-        <v>26153.4813994717</v>
+        <v>26153.48139947169</v>
       </c>
       <c r="N5" t="n">
         <v>26153.48139947169</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14750.73248915085</v>
+        <v>-399.9414808838956</v>
       </c>
       <c r="C6" t="n">
-        <v>14750.73248915085</v>
+        <v>-399.9414808838956</v>
       </c>
       <c r="D6" t="n">
-        <v>14750.73248915085</v>
+        <v>-399.9414808839101</v>
       </c>
       <c r="E6" t="n">
-        <v>-366326.3033677026</v>
+        <v>-377282.0314219527</v>
       </c>
       <c r="F6" t="n">
-        <v>165093.3498517018</v>
+        <v>154137.6217974517</v>
       </c>
       <c r="G6" t="n">
-        <v>165093.3498517019</v>
+        <v>154137.6217974517</v>
       </c>
       <c r="H6" t="n">
-        <v>165093.3498517018</v>
+        <v>154137.6217974518</v>
       </c>
       <c r="I6" t="n">
-        <v>159752.492946557</v>
+        <v>149168.4224825797</v>
       </c>
       <c r="J6" t="n">
-        <v>166729.6984699868</v>
+        <v>156145.6280060096</v>
       </c>
       <c r="K6" t="n">
-        <v>166729.6984699869</v>
+        <v>156145.6280060096</v>
       </c>
       <c r="L6" t="n">
-        <v>166729.6984699869</v>
+        <v>156145.6280060097</v>
       </c>
       <c r="M6" t="n">
-        <v>116144.8819475513</v>
+        <v>105189.1538933015</v>
       </c>
       <c r="N6" t="n">
-        <v>165093.3498517019</v>
+        <v>154137.6217974518</v>
       </c>
       <c r="O6" t="n">
-        <v>165093.3498517018</v>
+        <v>154137.6217974519</v>
       </c>
       <c r="P6" t="n">
-        <v>165093.3498517018</v>
+        <v>154137.6217974519</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>578.7122079513609</v>
+        <v>578.7122079513608</v>
       </c>
       <c r="F3" t="n">
-        <v>578.7122079513611</v>
+        <v>578.7122079513608</v>
       </c>
       <c r="G3" t="n">
         <v>578.7122079513611</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>222.6571589824341</v>
+      </c>
+      <c r="F4" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="F4" t="n">
-        <v>222.6571589824345</v>
-      </c>
       <c r="G4" t="n">
-        <v>222.6571589824345</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="H4" t="n">
-        <v>222.6571589824345</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="I4" t="n">
         <v>248.8950473907584</v>
@@ -26822,7 +26822,7 @@
         <v>248.8950473907584</v>
       </c>
       <c r="M4" t="n">
-        <v>222.6571589824346</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="N4" t="n">
         <v>222.6571589824345</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>578.7122079513609</v>
+        <v>578.7122079513608</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824341</v>
       </c>
       <c r="F4" t="n">
-        <v>2.806591755949435e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>26.23788840832395</v>
+        <v>26.23788840832412</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>196.4192705741103</v>
+        <v>196.4192705741096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824341</v>
       </c>
       <c r="N4" t="n">
-        <v>2.806591755949435e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31758,34 +31758,34 @@
         <v>23.82607597862059</v>
       </c>
       <c r="I11" t="n">
-        <v>89.69166792781849</v>
+        <v>89.69166792781846</v>
       </c>
       <c r="J11" t="n">
-        <v>197.4571869733139</v>
+        <v>197.4571869733138</v>
       </c>
       <c r="K11" t="n">
         <v>295.93713777766</v>
       </c>
       <c r="L11" t="n">
-        <v>367.1361879649624</v>
+        <v>367.1361879649623</v>
       </c>
       <c r="M11" t="n">
-        <v>408.5097486811634</v>
+        <v>408.5097486811633</v>
       </c>
       <c r="N11" t="n">
-        <v>415.119863498618</v>
+        <v>415.1198634986179</v>
       </c>
       <c r="O11" t="n">
-        <v>391.985915688301</v>
+        <v>391.9859156883009</v>
       </c>
       <c r="P11" t="n">
         <v>334.550910125289</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.233800789578</v>
+        <v>251.2338007895779</v>
       </c>
       <c r="R11" t="n">
-        <v>146.1408270662299</v>
+        <v>146.1408270662298</v>
       </c>
       <c r="S11" t="n">
         <v>53.01469121082066</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.244777202008588</v>
+        <v>1.244777202008587</v>
       </c>
       <c r="H12" t="n">
         <v>12.02192718781978</v>
       </c>
       <c r="I12" t="n">
-        <v>42.85746068319042</v>
+        <v>42.85746068319041</v>
       </c>
       <c r="J12" t="n">
-        <v>117.6041478441535</v>
+        <v>117.6041478441534</v>
       </c>
       <c r="K12" t="n">
         <v>201.0042203787288</v>
@@ -31849,31 +31849,31 @@
         <v>270.2749797606804</v>
       </c>
       <c r="M12" t="n">
-        <v>315.3981533334917</v>
+        <v>315.3981533334916</v>
       </c>
       <c r="N12" t="n">
         <v>323.7458039557335</v>
       </c>
       <c r="O12" t="n">
-        <v>296.1641617428064</v>
+        <v>296.1641617428063</v>
       </c>
       <c r="P12" t="n">
-        <v>237.6978500923241</v>
+        <v>237.697850092324</v>
       </c>
       <c r="Q12" t="n">
         <v>158.8947179265699</v>
       </c>
       <c r="R12" t="n">
-        <v>77.2853775071648</v>
+        <v>77.28537750716478</v>
       </c>
       <c r="S12" t="n">
         <v>23.12119057239634</v>
       </c>
       <c r="T12" t="n">
-        <v>5.017325651955665</v>
+        <v>5.017325651955664</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08189323697424923</v>
+        <v>0.0818932369742492</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,13 +31913,13 @@
         <v>1.0435793913877</v>
       </c>
       <c r="H13" t="n">
-        <v>9.278369497974284</v>
+        <v>9.278369497974282</v>
       </c>
       <c r="I13" t="n">
         <v>31.38327842464102</v>
       </c>
       <c r="J13" t="n">
-        <v>73.78106297111039</v>
+        <v>73.78106297111037</v>
       </c>
       <c r="K13" t="n">
         <v>121.2449511084982</v>
@@ -31928,10 +31928,10 @@
         <v>155.1517942432222</v>
       </c>
       <c r="M13" t="n">
-        <v>163.5858131427101</v>
+        <v>163.58581314271</v>
       </c>
       <c r="N13" t="n">
-        <v>159.696108138447</v>
+        <v>159.6961081384469</v>
       </c>
       <c r="O13" t="n">
         <v>147.5052034299633</v>
@@ -31940,19 +31940,19 @@
         <v>126.2161838456541</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.38554340065549</v>
+        <v>87.38554340065548</v>
       </c>
       <c r="R13" t="n">
-        <v>46.92312427094148</v>
+        <v>46.92312427094147</v>
       </c>
       <c r="S13" t="n">
-        <v>18.18674266627473</v>
+        <v>18.18674266627472</v>
       </c>
       <c r="T13" t="n">
-        <v>4.458930126838353</v>
+        <v>4.458930126838352</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05692251225751097</v>
+        <v>0.05692251225751096</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.32648123799542</v>
+        <v>2.326481237995419</v>
       </c>
       <c r="H14" t="n">
-        <v>23.8260759786206</v>
+        <v>23.82607597862059</v>
       </c>
       <c r="I14" t="n">
-        <v>89.6916679278185</v>
+        <v>89.69166792781846</v>
       </c>
       <c r="J14" t="n">
-        <v>197.4571869733139</v>
+        <v>197.4571869733138</v>
       </c>
       <c r="K14" t="n">
-        <v>295.9371377776601</v>
+        <v>295.93713777766</v>
       </c>
       <c r="L14" t="n">
-        <v>367.1361879649625</v>
+        <v>367.1361879649623</v>
       </c>
       <c r="M14" t="n">
-        <v>408.5097486811635</v>
+        <v>408.5097486811633</v>
       </c>
       <c r="N14" t="n">
-        <v>415.119863498618</v>
+        <v>415.1198634986179</v>
       </c>
       <c r="O14" t="n">
-        <v>391.9859156883011</v>
+        <v>391.9859156883009</v>
       </c>
       <c r="P14" t="n">
-        <v>334.5509101252891</v>
+        <v>334.550910125289</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.233800789578</v>
+        <v>251.2338007895779</v>
       </c>
       <c r="R14" t="n">
-        <v>146.1408270662299</v>
+        <v>146.1408270662298</v>
       </c>
       <c r="S14" t="n">
-        <v>53.01469121082068</v>
+        <v>53.01469121082066</v>
       </c>
       <c r="T14" t="n">
         <v>10.18417161932495</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.244777202008588</v>
+        <v>1.244777202008587</v>
       </c>
       <c r="H15" t="n">
-        <v>12.02192718781979</v>
+        <v>12.02192718781978</v>
       </c>
       <c r="I15" t="n">
-        <v>42.85746068319042</v>
+        <v>42.85746068319041</v>
       </c>
       <c r="J15" t="n">
-        <v>117.6041478441535</v>
+        <v>117.6041478441534</v>
       </c>
       <c r="K15" t="n">
-        <v>201.0042203787289</v>
+        <v>201.0042203787288</v>
       </c>
       <c r="L15" t="n">
-        <v>270.2749797606805</v>
+        <v>270.2749797606804</v>
       </c>
       <c r="M15" t="n">
-        <v>315.3981533334917</v>
+        <v>315.3981533334916</v>
       </c>
       <c r="N15" t="n">
-        <v>323.7458039557336</v>
+        <v>323.7458039557335</v>
       </c>
       <c r="O15" t="n">
-        <v>296.1641617428064</v>
+        <v>296.1641617428063</v>
       </c>
       <c r="P15" t="n">
-        <v>237.6978500923242</v>
+        <v>237.697850092324</v>
       </c>
       <c r="Q15" t="n">
         <v>158.8947179265699</v>
       </c>
       <c r="R15" t="n">
-        <v>77.28537750716481</v>
+        <v>77.28537750716478</v>
       </c>
       <c r="S15" t="n">
         <v>23.12119057239634</v>
       </c>
       <c r="T15" t="n">
-        <v>5.017325651955666</v>
+        <v>5.017325651955664</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08189323697424924</v>
+        <v>0.0818932369742492</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>1.0435793913877</v>
       </c>
       <c r="H16" t="n">
-        <v>9.278369497974285</v>
+        <v>9.278369497974282</v>
       </c>
       <c r="I16" t="n">
-        <v>31.38327842464103</v>
+        <v>31.38327842464102</v>
       </c>
       <c r="J16" t="n">
-        <v>73.7810629711104</v>
+        <v>73.78106297111037</v>
       </c>
       <c r="K16" t="n">
         <v>121.2449511084982</v>
       </c>
       <c r="L16" t="n">
-        <v>155.1517942432223</v>
+        <v>155.1517942432222</v>
       </c>
       <c r="M16" t="n">
-        <v>163.5858131427101</v>
+        <v>163.58581314271</v>
       </c>
       <c r="N16" t="n">
-        <v>159.696108138447</v>
+        <v>159.6961081384469</v>
       </c>
       <c r="O16" t="n">
         <v>147.5052034299633</v>
       </c>
       <c r="P16" t="n">
-        <v>126.2161838456542</v>
+        <v>126.2161838456541</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.38554340065552</v>
+        <v>87.38554340065548</v>
       </c>
       <c r="R16" t="n">
-        <v>46.92312427094149</v>
+        <v>46.92312427094147</v>
       </c>
       <c r="S16" t="n">
-        <v>18.18674266627473</v>
+        <v>18.18674266627472</v>
       </c>
       <c r="T16" t="n">
-        <v>4.458930126838354</v>
+        <v>4.458930126838352</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05692251225751098</v>
+        <v>0.05692251225751096</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.41128244662761</v>
+        <v>16.41128244662755</v>
       </c>
       <c r="K11" t="n">
-        <v>75.84728673267949</v>
+        <v>75.84728673267944</v>
       </c>
       <c r="L11" t="n">
-        <v>131.3697729949752</v>
+        <v>131.3697729949751</v>
       </c>
       <c r="M11" t="n">
-        <v>178.1635154538907</v>
+        <v>178.1635154538906</v>
       </c>
       <c r="N11" t="n">
-        <v>185.7067999020271</v>
+        <v>185.7067999020269</v>
       </c>
       <c r="O11" t="n">
         <v>161.8877042666142</v>
       </c>
       <c r="P11" t="n">
-        <v>103.3179143700195</v>
+        <v>103.3179143700194</v>
       </c>
       <c r="Q11" t="n">
-        <v>28.92811091512851</v>
+        <v>28.92811091512846</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>108.0392720003778</v>
+        <v>63.16278140436981</v>
       </c>
       <c r="L12" t="n">
         <v>131.7205999808062</v>
       </c>
       <c r="M12" t="n">
-        <v>173.2641194114734</v>
+        <v>218.1406100074811</v>
       </c>
       <c r="N12" t="n">
         <v>192.4040918724002</v>
@@ -35506,10 +35506,10 @@
         <v>153.5679172983619</v>
       </c>
       <c r="P12" t="n">
-        <v>103.7234426779939</v>
+        <v>103.7234426779938</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.91294384054839</v>
+        <v>18.91294384054837</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>98.97545928261535</v>
+        <v>98.97545928261533</v>
       </c>
       <c r="L13" t="n">
         <v>182.7418195035384</v>
       </c>
       <c r="M13" t="n">
-        <v>203.1696901045507</v>
+        <v>99.27825317462052</v>
       </c>
       <c r="N13" t="n">
-        <v>203.8282805176756</v>
+        <v>203.8282805176755</v>
       </c>
       <c r="O13" t="n">
-        <v>172.090331344003</v>
+        <v>172.0903313440029</v>
       </c>
       <c r="P13" t="n">
-        <v>20.82680632957884</v>
+        <v>123.4947431105476</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.223500148961094</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>16.41128244662764</v>
+        <v>16.41128244662755</v>
       </c>
       <c r="K14" t="n">
-        <v>75.84728673267955</v>
+        <v>75.84728673267944</v>
       </c>
       <c r="L14" t="n">
-        <v>131.3697729949752</v>
+        <v>131.3697729949751</v>
       </c>
       <c r="M14" t="n">
-        <v>178.1635154538908</v>
+        <v>178.1635154538906</v>
       </c>
       <c r="N14" t="n">
-        <v>185.7067999020271</v>
+        <v>185.7067999020269</v>
       </c>
       <c r="O14" t="n">
-        <v>161.8877042666143</v>
+        <v>161.8877042666142</v>
       </c>
       <c r="P14" t="n">
-        <v>103.3179143700195</v>
+        <v>103.3179143700194</v>
       </c>
       <c r="Q14" t="n">
-        <v>28.92811091512854</v>
+        <v>28.92811091512846</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>63.16278140436989</v>
+        <v>63.16278140436981</v>
       </c>
       <c r="L15" t="n">
-        <v>176.597090576815</v>
+        <v>131.7205999808062</v>
       </c>
       <c r="M15" t="n">
-        <v>173.2641194114734</v>
+        <v>173.2641194114733</v>
       </c>
       <c r="N15" t="n">
-        <v>192.4040918724003</v>
+        <v>192.4040918724002</v>
       </c>
       <c r="O15" t="n">
-        <v>153.567917298362</v>
+        <v>153.5679172983619</v>
       </c>
       <c r="P15" t="n">
-        <v>103.7234426779939</v>
+        <v>103.7234426779938</v>
       </c>
       <c r="Q15" t="n">
-        <v>18.91294384054842</v>
+        <v>63.78943443655656</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>98.97545928261538</v>
+        <v>98.97545928261533</v>
       </c>
       <c r="L16" t="n">
         <v>182.7418195035384</v>
       </c>
       <c r="M16" t="n">
-        <v>99.27825317462178</v>
+        <v>99.27825317462099</v>
       </c>
       <c r="N16" t="n">
-        <v>203.8282805176756</v>
+        <v>203.8282805176755</v>
       </c>
       <c r="O16" t="n">
-        <v>172.090331344003</v>
+        <v>172.0903313440029</v>
       </c>
       <c r="P16" t="n">
         <v>123.4947431105476</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.223500148961136</v>
+        <v>1.223500148961094</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>103.3179143700195</v>
       </c>
       <c r="Q17" t="n">
-        <v>28.92811091512854</v>
+        <v>28.92811091512774</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>44.87649059600845</v>
+        <v>44.87649059600756</v>
       </c>
       <c r="K18" t="n">
         <v>63.16278140436989</v>
@@ -36047,10 +36047,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>182.7418195035384</v>
+        <v>179.0493420051849</v>
       </c>
       <c r="M19" t="n">
-        <v>198.2537124572369</v>
+        <v>203.1696901045507</v>
       </c>
       <c r="N19" t="n">
         <v>203.8282805176756</v>
@@ -36062,7 +36062,7 @@
         <v>123.4947431105476</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.223500148961136</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>44.87649059600823</v>
       </c>
       <c r="K21" t="n">
         <v>63.16278140436989</v>
@@ -36220,7 +36220,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.78943443655691</v>
+        <v>18.91294384054842</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>98.97545928261538</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>80.07388272257043</v>
+        <v>179.0493420051856</v>
       </c>
       <c r="M22" t="n">
         <v>203.1696901045507</v>
@@ -36363,7 +36363,7 @@
         <v>75.84728673267955</v>
       </c>
       <c r="L23" t="n">
-        <v>131.3697729949752</v>
+        <v>235.2612099249045</v>
       </c>
       <c r="M23" t="n">
         <v>178.1635154538908</v>
@@ -36378,7 +36378,7 @@
         <v>103.3179143700195</v>
       </c>
       <c r="Q23" t="n">
-        <v>132.8195478450578</v>
+        <v>28.92811091512854</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>116.8575565178956</v>
       </c>
       <c r="K24" t="n">
         <v>63.16278140436989</v>
@@ -36448,13 +36448,13 @@
         <v>173.2641194114734</v>
       </c>
       <c r="N24" t="n">
-        <v>248.8950473907584</v>
+        <v>192.4040918724003</v>
       </c>
       <c r="O24" t="n">
-        <v>153.567917298362</v>
+        <v>185.4782883064041</v>
       </c>
       <c r="P24" t="n">
-        <v>196.0004146855735</v>
+        <v>103.7234426779939</v>
       </c>
       <c r="Q24" t="n">
         <v>18.91294384054842</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>16.41128244662764</v>
+        <v>120.3027193765569</v>
       </c>
       <c r="K26" t="n">
         <v>75.84728673267955</v>
@@ -36603,13 +36603,13 @@
         <v>131.3697729949752</v>
       </c>
       <c r="M26" t="n">
-        <v>195.0476092596759</v>
+        <v>178.1635154538908</v>
       </c>
       <c r="N26" t="n">
         <v>185.7067999020271</v>
       </c>
       <c r="O26" t="n">
-        <v>248.8950473907584</v>
+        <v>161.8877042666143</v>
       </c>
       <c r="P26" t="n">
         <v>103.3179143700195</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>116.8575565178956</v>
       </c>
       <c r="K27" t="n">
-        <v>211.9307089303076</v>
+        <v>63.16278140436989</v>
       </c>
       <c r="L27" t="n">
-        <v>131.7205999808063</v>
+        <v>163.6309709888483</v>
       </c>
       <c r="M27" t="n">
         <v>173.2641194114734</v>
@@ -36761,7 +36761,7 @@
         <v>182.7418195035384</v>
       </c>
       <c r="M28" t="n">
-        <v>203.1696901045508</v>
+        <v>203.1696901045507</v>
       </c>
       <c r="N28" t="n">
         <v>203.8282805176756</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>16.41128244662764</v>
+        <v>120.3027193765569</v>
       </c>
       <c r="K29" t="n">
         <v>75.84728673267955</v>
@@ -36846,10 +36846,10 @@
         <v>185.7067999020271</v>
       </c>
       <c r="O29" t="n">
-        <v>248.8950473907584</v>
+        <v>161.8877042666143</v>
       </c>
       <c r="P29" t="n">
-        <v>120.2020081758046</v>
+        <v>103.3179143700195</v>
       </c>
       <c r="Q29" t="n">
         <v>28.92811091512854</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>63.16278140436989</v>
+        <v>94.75626152035545</v>
       </c>
       <c r="L30" t="n">
-        <v>131.7205999808063</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="M30" t="n">
         <v>173.2641194114734</v>
@@ -36931,7 +36931,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.6808713664861</v>
+        <v>18.91294384054842</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>98.97545928261546</v>
+        <v>98.97545928261538</v>
       </c>
       <c r="L31" t="n">
         <v>182.7418195035384</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>116.8575565178956</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>63.16278140436989</v>
       </c>
       <c r="L33" t="n">
-        <v>131.7205999808063</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="M33" t="n">
         <v>173.2641194114734</v>
@@ -37165,7 +37165,7 @@
         <v>153.567917298362</v>
       </c>
       <c r="P33" t="n">
-        <v>135.633813686036</v>
+        <v>135.3169227939796</v>
       </c>
       <c r="Q33" t="n">
         <v>18.91294384054842</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>16.41128244662764</v>
+        <v>16.41128244662793</v>
       </c>
       <c r="K35" t="n">
         <v>75.84728673267955</v>
       </c>
       <c r="L35" t="n">
-        <v>131.369772994976</v>
+        <v>131.3697729949752</v>
       </c>
       <c r="M35" t="n">
         <v>178.1635154538908</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>63.16278140436989</v>
+        <v>108.0392720003786</v>
       </c>
       <c r="L36" t="n">
         <v>131.7205999808063</v>
       </c>
       <c r="M36" t="n">
-        <v>218.1406100074826</v>
+        <v>173.2641194114734</v>
       </c>
       <c r="N36" t="n">
         <v>192.4040918724003</v>
@@ -37469,10 +37469,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>182.7418195035384</v>
+        <v>179.049342005186</v>
       </c>
       <c r="M37" t="n">
-        <v>198.2537124572376</v>
+        <v>203.1696901045507</v>
       </c>
       <c r="N37" t="n">
         <v>203.8282805176756</v>
@@ -37484,7 +37484,7 @@
         <v>123.4947431105476</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.223500148961136</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>16.41128244662764</v>
+        <v>16.41128244662793</v>
       </c>
       <c r="K38" t="n">
         <v>75.84728673267955</v>
@@ -37557,7 +37557,7 @@
         <v>185.7067999020271</v>
       </c>
       <c r="O38" t="n">
-        <v>161.8877042666144</v>
+        <v>161.8877042666143</v>
       </c>
       <c r="P38" t="n">
         <v>103.3179143700195</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>63.16278140436989</v>
+        <v>108.0392720003786</v>
       </c>
       <c r="L39" t="n">
-        <v>176.5970905768147</v>
+        <v>131.7205999808063</v>
       </c>
       <c r="M39" t="n">
         <v>173.2641194114734</v>
@@ -37706,7 +37706,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>179.0493420051858</v>
+        <v>182.7418195035384</v>
       </c>
       <c r="M40" t="n">
         <v>203.1696901045507</v>
@@ -37718,10 +37718,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P40" t="n">
-        <v>123.4947431105476</v>
+        <v>118.5787654632342</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.223500148961136</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>108.0392720003783</v>
+        <v>108.0392720003786</v>
       </c>
       <c r="L42" t="n">
         <v>131.7205999808063</v>
@@ -37949,16 +37949,16 @@
         <v>203.1696901045507</v>
       </c>
       <c r="N43" t="n">
-        <v>200.135803019323</v>
+        <v>203.8282805176756</v>
       </c>
       <c r="O43" t="n">
         <v>172.090331344003</v>
       </c>
       <c r="P43" t="n">
-        <v>123.4947431105476</v>
+        <v>118.5787654632342</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.223500148961136</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>63.16278140436989</v>
       </c>
       <c r="L45" t="n">
-        <v>176.5970905768145</v>
+        <v>131.7205999808063</v>
       </c>
       <c r="M45" t="n">
-        <v>173.2641194114734</v>
+        <v>218.1406100074817</v>
       </c>
       <c r="N45" t="n">
         <v>192.4040918724003</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>98.97545928261538</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>182.7418195035384</v>
@@ -38189,10 +38189,10 @@
         <v>203.8282805176756</v>
       </c>
       <c r="O46" t="n">
-        <v>68.19889441407365</v>
+        <v>172.090331344003</v>
       </c>
       <c r="P46" t="n">
-        <v>123.4947431105476</v>
+        <v>118.5787654632337</v>
       </c>
       <c r="Q46" t="n">
         <v>1.223500148961136</v>
